--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_33.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1219883.806043054</v>
+        <v>1202361.317849265</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3757127.961154015</v>
+        <v>3795005.783260941</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10968454.34854507</v>
+        <v>10960959.63212139</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7115547.183779697</v>
+        <v>7111964.604525651</v>
       </c>
     </row>
     <row r="11">
@@ -2087,19 +2087,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="G20" t="n">
-        <v>132.4589554166825</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5.948788947172769</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,19 +2126,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>135.6768209676692</v>
       </c>
       <c r="U20" t="n">
-        <v>161.9490200564214</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2160,25 +2160,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>85.28947039185354</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>60.02603696817656</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>70.22605185893875</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>47.94688431179556</v>
+        <v>49.92448856674844</v>
       </c>
       <c r="H21" t="n">
-        <v>22.83881138508139</v>
+        <v>24.81641564003426</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.97760425495288</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.76120130122806</v>
+        <v>12.73880555618094</v>
       </c>
       <c r="S21" t="n">
-        <v>82.28653825242274</v>
+        <v>84.26414250737562</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>112.7457000983594</v>
       </c>
       <c r="U21" t="n">
-        <v>136.5447492295597</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>143.4039542980102</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>79.14823978198686</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>118.3539566070153</v>
       </c>
       <c r="Y21" t="n">
-        <v>116.2860629258893</v>
+        <v>3.638993033469121</v>
       </c>
     </row>
     <row r="22">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>79.82779250216564</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>68.03144633079609</v>
       </c>
       <c r="J22" t="n">
-        <v>3.962547265257697</v>
+        <v>5.940151520210577</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>87.89675852575441</v>
+        <v>39.95400505897066</v>
       </c>
       <c r="S22" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>52.91781961042253</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>138.290626792575</v>
       </c>
       <c r="Y22" t="n">
-        <v>129.1880205006797</v>
+        <v>131.1656247556326</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,16 +2327,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>23.99955220206807</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>143.4816956582105</v>
       </c>
       <c r="H23" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>121.0792567189908</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,16 +2363,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>62.45008934468751</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>121.6010409897832</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>135.6768209676692</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.13655079845226</v>
+        <v>29.06709332248704</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>60.02603696817658</v>
       </c>
       <c r="E24" t="n">
-        <v>68.24844760398587</v>
+        <v>70.22605185893877</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>57.65018379692171</v>
       </c>
       <c r="G24" t="n">
-        <v>47.94688431179556</v>
+        <v>49.92448856674847</v>
       </c>
       <c r="H24" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.977604254952908</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>12.73880555618096</v>
       </c>
       <c r="S24" t="n">
-        <v>82.28653825242274</v>
+        <v>84.26414250737565</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>112.7457000983594</v>
       </c>
       <c r="U24" t="n">
-        <v>136.5447492295597</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>145.3815585529631</v>
       </c>
       <c r="W24" t="n">
-        <v>87.92839697878702</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>116.2860629258893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>61.19644442175019</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,16 +2488,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>80.57195076199659</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>74.80814391097741</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>68.03144633079611</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.940151520210605</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>87.89675852575441</v>
+        <v>11.86949149186521</v>
       </c>
       <c r="S25" t="n">
-        <v>83.67014523172149</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="V25" t="n">
-        <v>162.7410104724129</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2561,19 +2561,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>116.9106781189649</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>123.0568609739437</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>62.45008934468751</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>145.078808921059</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>79.85799153355877</v>
+        <v>79.11415505340517</v>
       </c>
       <c r="C27" t="n">
-        <v>86.03330687200717</v>
+        <v>85.28947039185357</v>
       </c>
       <c r="D27" t="n">
-        <v>60.76987344833019</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>70.96988833909238</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>57.65018379692171</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>49.92448856674847</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>24.81641564003429</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.977604254952908</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>112.7457000983594</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>103.4800845448206</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>119.0977930871689</v>
+        <v>118.3539566070153</v>
       </c>
       <c r="Y27" t="n">
-        <v>119.0075036609958</v>
+        <v>94.12969107381376</v>
       </c>
     </row>
     <row r="28">
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.15678806562873</v>
+        <v>92.41295158547513</v>
       </c>
       <c r="C28" t="n">
-        <v>80.57162898231927</v>
+        <v>79.82779250216566</v>
       </c>
       <c r="D28" t="n">
-        <v>61.94028090190379</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>59.75877053026061</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>58.74585590662268</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>6.683988000364209</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.61819926086092</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>137.3414059206637</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>30.08150897509089</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>21.51265132450188</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>138.290626792575</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>131.1656247556326</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2792,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>69.94905749180714</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="F29" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>145.0788089210589</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>71.67655242303471</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.51251827297472</v>
+        <v>29.18966648665671</v>
       </c>
       <c r="C30" t="n">
-        <v>35.68783361142312</v>
+        <v>35.3649818251051</v>
       </c>
       <c r="D30" t="n">
-        <v>10.42440018774613</v>
+        <v>10.10154840142812</v>
       </c>
       <c r="E30" t="n">
-        <v>20.62441507850832</v>
+        <v>20.30156329219031</v>
       </c>
       <c r="F30" t="n">
-        <v>8.048547016491256</v>
+        <v>7.725695230173244</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3228517863180116</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>34.6625057269452</v>
+        <v>34.33965394062719</v>
       </c>
       <c r="T30" t="n">
-        <v>63.14406331792898</v>
+        <v>51.80350875087567</v>
       </c>
       <c r="U30" t="n">
-        <v>88.9207167040822</v>
+        <v>88.59786491776418</v>
       </c>
       <c r="V30" t="n">
-        <v>95.77992177253265</v>
+        <v>95.45706998621463</v>
       </c>
       <c r="W30" t="n">
-        <v>114.674317784027</v>
+        <v>114.351465997709</v>
       </c>
       <c r="X30" t="n">
-        <v>68.75231982658485</v>
+        <v>68.42946804026684</v>
       </c>
       <c r="Y30" t="n">
-        <v>68.66203040041174</v>
+        <v>68.33917861409373</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>42.48846301872666</v>
       </c>
       <c r="C31" t="n">
-        <v>30.22615572173521</v>
+        <v>29.9033039354172</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>11.27195585500172</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>9.090445483358536</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>8.077530859720611</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>30.64746219524812</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>24.88365534422894</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>18.10695776404765</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>40.27272600027686</v>
+        <v>39.94987421395885</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>90.92492405138887</v>
+        <v>90.60207226507086</v>
       </c>
       <c r="U31" t="n">
-        <v>149.2983639795983</v>
+        <v>34.57854397299736</v>
       </c>
       <c r="V31" t="n">
-        <v>115.1169779469354</v>
+        <v>114.7941261606174</v>
       </c>
       <c r="W31" t="n">
-        <v>149.5023329596984</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>88.36613822582652</v>
       </c>
       <c r="Y31" t="n">
-        <v>63.87496082634076</v>
+        <v>81.24113618888416</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>141.6256099148419</v>
       </c>
       <c r="F32" t="n">
-        <v>145.0788089210589</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3089,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.51251827297472</v>
+        <v>29.18966648665671</v>
       </c>
       <c r="C33" t="n">
-        <v>35.68783361142312</v>
+        <v>35.3649818251051</v>
       </c>
       <c r="D33" t="n">
-        <v>10.42440018774613</v>
+        <v>10.10154840142812</v>
       </c>
       <c r="E33" t="n">
-        <v>20.62441507850832</v>
+        <v>20.30156329219031</v>
       </c>
       <c r="F33" t="n">
-        <v>8.048547016491256</v>
+        <v>7.725695230173244</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3228517863180116</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>34.6625057269452</v>
+        <v>34.33965394062719</v>
       </c>
       <c r="T33" t="n">
-        <v>63.14406331792898</v>
+        <v>62.82121153161097</v>
       </c>
       <c r="U33" t="n">
-        <v>88.9207167040822</v>
+        <v>88.59786491776418</v>
       </c>
       <c r="V33" t="n">
-        <v>95.77992177253265</v>
+        <v>95.45706998621463</v>
       </c>
       <c r="W33" t="n">
-        <v>114.674317784027</v>
+        <v>114.351465997709</v>
       </c>
       <c r="X33" t="n">
-        <v>68.75231982658455</v>
+        <v>57.41176525953143</v>
       </c>
       <c r="Y33" t="n">
-        <v>68.66203040041174</v>
+        <v>68.33917861409373</v>
       </c>
     </row>
     <row r="34">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.81131480504467</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>30.22615572173521</v>
+        <v>29.9033039354172</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>11.27195585500172</v>
       </c>
       <c r="E34" t="n">
-        <v>9.413297269676548</v>
+        <v>9.090445483358536</v>
       </c>
       <c r="F34" t="n">
-        <v>8.400382646038622</v>
+        <v>8.077530859720611</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>25.20650713054695</v>
+        <v>24.88365534422894</v>
       </c>
       <c r="I34" t="n">
-        <v>18.42980955036566</v>
+        <v>18.10695776404765</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>40.27272600027686</v>
+        <v>39.94987421395885</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>47.10509521951843</v>
       </c>
       <c r="T34" t="n">
-        <v>29.58395946830878</v>
+        <v>90.60207226507086</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>148.9755121932803</v>
       </c>
       <c r="V34" t="n">
-        <v>115.1169779469354</v>
+        <v>114.7941261606174</v>
       </c>
       <c r="W34" t="n">
-        <v>149.5023329596984</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>88.68899001214453</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.56398797520217</v>
+        <v>81.24113618888416</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>25.96472044526931</v>
       </c>
       <c r="C35" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>84.84639065991516</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>60.23241826114368</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3329,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="Y35" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227543</v>
       </c>
     </row>
     <row r="36">
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C36" t="n">
-        <v>83.07179930830974</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>57.80836588463275</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>6.672257779531939</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>47.70681748320463</v>
+        <v>28.31313112547468</v>
       </c>
       <c r="H36" t="n">
-        <v>22.59874455649046</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>143.1638874694193</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W36" t="n">
-        <v>162.0582834809136</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X36" t="n">
-        <v>116.1362855234715</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="37">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.19528050193129</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C37" t="n">
-        <v>77.61012141862183</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D37" t="n">
-        <v>58.97877333820635</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>56.79726296656317</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>55.78434834292524</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>65.81377524725228</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.65669169716348</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S37" t="n">
-        <v>134.3798983569662</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T37" t="n">
-        <v>12.00028961634388</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>112.3265012027175</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>9.336375051580982</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,10 +3518,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>120.8391898903999</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>60.23241826114368</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>119.3833699062393</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>141.6256099148419</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>160.7920185227543</v>
       </c>
     </row>
     <row r="39">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>73.17400353319454</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>17.03756098000027</v>
+        <v>16.96465253354066</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>43.98433704653783</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>110.5280290148156</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U39" t="n">
-        <v>136.3046824009688</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>143.1638874694193</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X39" t="n">
-        <v>116.1362855234715</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y39" t="n">
-        <v>116.0459960972984</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="40">
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>12.98174731014155</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>78.35427967845276</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>72.59047282743357</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>87.65669169716348</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="V40" t="n">
-        <v>162.500943643822</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W40" t="n">
-        <v>102.0410979300708</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="X40" t="n">
-        <v>136.0729557090311</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>141.6256099148419</v>
       </c>
       <c r="E41" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>145.078808921059</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>160.7920185227543</v>
       </c>
     </row>
     <row r="42">
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>76.89648396986134</v>
+        <v>75.89544426830105</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>82.07075960674945</v>
       </c>
       <c r="D42" t="n">
-        <v>3.572806331271606</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>67.00734107383465</v>
       </c>
       <c r="F42" t="n">
-        <v>55.43251271337788</v>
+        <v>54.43147301181759</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.520094771076842</v>
       </c>
       <c r="S42" t="n">
-        <v>82.04647142383182</v>
+        <v>81.04543172227153</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>109.5269893132553</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>135.3036426994085</v>
       </c>
       <c r="V42" t="n">
-        <v>143.1638874694193</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>162.0582834809136</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>9.200489016389852</v>
       </c>
       <c r="Y42" t="n">
-        <v>116.0459960972984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>58.97877333820635</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,13 +3913,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>72.59047282743357</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.722480436666771</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>87.65669169716348</v>
+        <v>86.65565199560319</v>
       </c>
       <c r="S43" t="n">
-        <v>134.3798983569662</v>
+        <v>113.535164986748</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>16.86721544841748</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="X43" t="n">
-        <v>136.0729557090311</v>
+        <v>135.0719160074709</v>
       </c>
       <c r="Y43" t="n">
-        <v>128.9479536720888</v>
+        <v>127.9469139705285</v>
       </c>
     </row>
     <row r="44">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>146.97392819838</v>
+        <v>506.1207801842806</v>
       </c>
       <c r="C20" t="n">
-        <v>146.97392819838</v>
+        <v>506.1207801842806</v>
       </c>
       <c r="D20" t="n">
-        <v>146.97392819838</v>
+        <v>506.1207801842806</v>
       </c>
       <c r="E20" t="n">
-        <v>146.97392819838</v>
+        <v>343.7045998582662</v>
       </c>
       <c r="F20" t="n">
-        <v>146.97392819838</v>
+        <v>181.2884195322517</v>
       </c>
       <c r="G20" t="n">
-        <v>13.1770035350644</v>
+        <v>18.87223920623728</v>
       </c>
       <c r="H20" t="n">
-        <v>13.1770035350644</v>
+        <v>18.87223920623728</v>
       </c>
       <c r="I20" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J20" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K20" t="n">
-        <v>13.1770035350644</v>
+        <v>115.8783673927427</v>
       </c>
       <c r="L20" t="n">
-        <v>176.2424222814863</v>
+        <v>245.1289703187914</v>
       </c>
       <c r="M20" t="n">
-        <v>339.3078410279082</v>
+        <v>245.1289703187914</v>
       </c>
       <c r="N20" t="n">
-        <v>502.3732597743301</v>
+        <v>404.3130686563181</v>
       </c>
       <c r="O20" t="n">
-        <v>651.5682099169782</v>
+        <v>553.5080187989662</v>
       </c>
       <c r="P20" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="Q20" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="R20" t="n">
-        <v>597.7668584807606</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="S20" t="n">
-        <v>476.9351042031542</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="T20" t="n">
-        <v>476.9351042031542</v>
+        <v>506.1207801842806</v>
       </c>
       <c r="U20" t="n">
-        <v>313.3502354592941</v>
+        <v>506.1207801842806</v>
       </c>
       <c r="V20" t="n">
-        <v>146.97392819838</v>
+        <v>506.1207801842806</v>
       </c>
       <c r="W20" t="n">
-        <v>146.97392819838</v>
+        <v>506.1207801842806</v>
       </c>
       <c r="X20" t="n">
-        <v>146.97392819838</v>
+        <v>506.1207801842806</v>
       </c>
       <c r="Y20" t="n">
-        <v>146.97392819838</v>
+        <v>506.1207801842806</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>84.67770625918253</v>
+        <v>308.0755510582895</v>
       </c>
       <c r="C21" t="n">
-        <v>84.67770625918253</v>
+        <v>221.924570864498</v>
       </c>
       <c r="D21" t="n">
-        <v>84.67770625918253</v>
+        <v>161.2922102905823</v>
       </c>
       <c r="E21" t="n">
-        <v>84.67770625918253</v>
+        <v>90.35680437246234</v>
       </c>
       <c r="F21" t="n">
-        <v>84.67770625918253</v>
+        <v>90.35680437246234</v>
       </c>
       <c r="G21" t="n">
-        <v>36.24650998464156</v>
+        <v>39.92802804241342</v>
       </c>
       <c r="H21" t="n">
-        <v>13.1770035350644</v>
+        <v>14.8609415373283</v>
       </c>
       <c r="I21" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J21" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K21" t="n">
-        <v>138.5345635929018</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="L21" t="n">
-        <v>301.5999823393237</v>
+        <v>165.615779078437</v>
       </c>
       <c r="M21" t="n">
-        <v>464.6654010857455</v>
+        <v>324.7998774159637</v>
       </c>
       <c r="N21" t="n">
-        <v>627.7308198321674</v>
+        <v>483.9839757534904</v>
       </c>
       <c r="O21" t="n">
-        <v>627.7308198321674</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="P21" t="n">
-        <v>627.7308198321674</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="Q21" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="R21" t="n">
-        <v>647.980276448949</v>
+        <v>630.3005937312385</v>
       </c>
       <c r="S21" t="n">
-        <v>564.8625610424614</v>
+        <v>545.1852982692428</v>
       </c>
       <c r="T21" t="n">
-        <v>564.8625610424614</v>
+        <v>431.3007527153444</v>
       </c>
       <c r="U21" t="n">
-        <v>426.938571921694</v>
+        <v>431.3007527153444</v>
       </c>
       <c r="V21" t="n">
-        <v>282.0860928327948</v>
+        <v>431.3007527153444</v>
       </c>
       <c r="W21" t="n">
-        <v>202.1383758812929</v>
+        <v>431.3007527153444</v>
       </c>
       <c r="X21" t="n">
-        <v>202.1383758812929</v>
+        <v>311.7513015971472</v>
       </c>
       <c r="Y21" t="n">
-        <v>84.67770625918253</v>
+        <v>308.0755510582895</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.17957653027419</v>
+        <v>168.2162810304793</v>
       </c>
       <c r="C22" t="n">
-        <v>17.17957653027419</v>
+        <v>87.58214718990789</v>
       </c>
       <c r="D22" t="n">
-        <v>17.17957653027419</v>
+        <v>87.58214718990789</v>
       </c>
       <c r="E22" t="n">
-        <v>17.17957653027419</v>
+        <v>87.58214718990789</v>
       </c>
       <c r="F22" t="n">
-        <v>17.17957653027419</v>
+        <v>87.58214718990789</v>
       </c>
       <c r="G22" t="n">
-        <v>17.17957653027419</v>
+        <v>87.58214718990789</v>
       </c>
       <c r="H22" t="n">
-        <v>17.17957653027419</v>
+        <v>87.58214718990789</v>
       </c>
       <c r="I22" t="n">
-        <v>17.17957653027419</v>
+        <v>18.8635145325381</v>
       </c>
       <c r="J22" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K22" t="n">
-        <v>79.6328731503413</v>
+        <v>77.36140288469392</v>
       </c>
       <c r="L22" t="n">
-        <v>195.4496646809552</v>
+        <v>191.2203662029045</v>
       </c>
       <c r="M22" t="n">
-        <v>323.1403693960783</v>
+        <v>316.9532427056242</v>
       </c>
       <c r="N22" t="n">
-        <v>455.3338865744156</v>
+        <v>447.1889316715581</v>
       </c>
       <c r="O22" t="n">
-        <v>568.1758297322158</v>
+        <v>558.0730466169549</v>
       </c>
       <c r="P22" t="n">
-        <v>653.9842699273613</v>
+        <v>641.923658599697</v>
       </c>
       <c r="Q22" t="n">
-        <v>657.1865136310848</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="R22" t="n">
-        <v>568.4019090596157</v>
+        <v>602.81049322337</v>
       </c>
       <c r="S22" t="n">
-        <v>432.4221462459216</v>
+        <v>602.81049322337</v>
       </c>
       <c r="T22" t="n">
-        <v>292.4737052591878</v>
+        <v>602.81049322337</v>
       </c>
       <c r="U22" t="n">
-        <v>292.4737052591878</v>
+        <v>602.81049322337</v>
       </c>
       <c r="V22" t="n">
-        <v>292.4737052591878</v>
+        <v>602.81049322337</v>
       </c>
       <c r="W22" t="n">
-        <v>239.021362218357</v>
+        <v>440.3943128973556</v>
       </c>
       <c r="X22" t="n">
-        <v>239.021362218357</v>
+        <v>300.7068110866738</v>
       </c>
       <c r="Y22" t="n">
-        <v>108.5284122176704</v>
+        <v>168.2162810304793</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>492.4738694923057</v>
+        <v>157.7943671971845</v>
       </c>
       <c r="C23" t="n">
-        <v>326.0975622313915</v>
+        <v>157.7943671971845</v>
       </c>
       <c r="D23" t="n">
-        <v>326.0975622313915</v>
+        <v>157.7943671971845</v>
       </c>
       <c r="E23" t="n">
-        <v>326.0975622313915</v>
+        <v>157.7943671971845</v>
       </c>
       <c r="F23" t="n">
-        <v>301.8555903101106</v>
+        <v>157.7943671971845</v>
       </c>
       <c r="G23" t="n">
-        <v>301.8555903101106</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="H23" t="n">
-        <v>135.4792830491966</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="I23" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J23" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K23" t="n">
-        <v>116.1920094459868</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="L23" t="n">
-        <v>279.2574281924087</v>
+        <v>85.94487198126455</v>
       </c>
       <c r="M23" t="n">
-        <v>442.3228469388306</v>
+        <v>245.1289703187912</v>
       </c>
       <c r="N23" t="n">
-        <v>442.3228469388306</v>
+        <v>404.3130686563179</v>
       </c>
       <c r="O23" t="n">
-        <v>569.1901214611688</v>
+        <v>553.508018798966</v>
       </c>
       <c r="P23" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="Q23" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="R23" t="n">
-        <v>658.8501767532198</v>
+        <v>580.0871757630498</v>
       </c>
       <c r="S23" t="n">
-        <v>658.8501767532198</v>
+        <v>457.2578414299355</v>
       </c>
       <c r="T23" t="n">
-        <v>658.8501767532198</v>
+        <v>320.2105475231989</v>
       </c>
       <c r="U23" t="n">
-        <v>658.8501767532198</v>
+        <v>157.7943671971845</v>
       </c>
       <c r="V23" t="n">
-        <v>658.8501767532198</v>
+        <v>157.7943671971845</v>
       </c>
       <c r="W23" t="n">
-        <v>658.8501767532198</v>
+        <v>157.7943671971845</v>
       </c>
       <c r="X23" t="n">
-        <v>658.8501767532198</v>
+        <v>157.7943671971845</v>
       </c>
       <c r="Y23" t="n">
-        <v>492.4738694923057</v>
+        <v>157.7943671971845</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>153.6155321217945</v>
+        <v>255.0899932451925</v>
       </c>
       <c r="C24" t="n">
-        <v>153.6155321217945</v>
+        <v>255.0899932451925</v>
       </c>
       <c r="D24" t="n">
-        <v>153.6155321217945</v>
+        <v>194.4576326712768</v>
       </c>
       <c r="E24" t="n">
-        <v>84.67770625918253</v>
+        <v>123.5222267531568</v>
       </c>
       <c r="F24" t="n">
-        <v>84.67770625918253</v>
+        <v>65.28971786737729</v>
       </c>
       <c r="G24" t="n">
-        <v>36.24650998464156</v>
+        <v>14.86094153732833</v>
       </c>
       <c r="H24" t="n">
-        <v>13.1770035350644</v>
+        <v>14.86094153732833</v>
       </c>
       <c r="I24" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J24" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K24" t="n">
-        <v>138.5345635929018</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="L24" t="n">
-        <v>301.5999823393237</v>
+        <v>96.22122056510756</v>
       </c>
       <c r="M24" t="n">
-        <v>301.5999823393237</v>
+        <v>255.4053189026342</v>
       </c>
       <c r="N24" t="n">
-        <v>332.719339260376</v>
+        <v>414.5894172401609</v>
       </c>
       <c r="O24" t="n">
-        <v>495.7847580067979</v>
+        <v>573.7735155776876</v>
       </c>
       <c r="P24" t="n">
-        <v>658.8501767532198</v>
+        <v>573.7735155776876</v>
       </c>
       <c r="Q24" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="R24" t="n">
-        <v>658.8501767532198</v>
+        <v>630.3005937312382</v>
       </c>
       <c r="S24" t="n">
-        <v>575.7324613467322</v>
+        <v>545.1852982692426</v>
       </c>
       <c r="T24" t="n">
-        <v>575.7324613467322</v>
+        <v>431.3007527153442</v>
       </c>
       <c r="U24" t="n">
-        <v>437.8084722259648</v>
+        <v>431.3007527153442</v>
       </c>
       <c r="V24" t="n">
-        <v>437.8084722259648</v>
+        <v>284.450693570937</v>
       </c>
       <c r="W24" t="n">
-        <v>348.9919096211294</v>
+        <v>284.450693570937</v>
       </c>
       <c r="X24" t="n">
-        <v>348.9919096211294</v>
+        <v>284.450693570937</v>
       </c>
       <c r="Y24" t="n">
-        <v>231.531239999019</v>
+        <v>284.450693570937</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.1770035350644</v>
+        <v>306.3463280936697</v>
       </c>
       <c r="C25" t="n">
-        <v>13.1770035350644</v>
+        <v>306.3463280936697</v>
       </c>
       <c r="D25" t="n">
-        <v>13.1770035350644</v>
+        <v>244.5317377686696</v>
       </c>
       <c r="E25" t="n">
-        <v>13.1770035350644</v>
+        <v>244.5317377686696</v>
       </c>
       <c r="F25" t="n">
-        <v>13.1770035350644</v>
+        <v>244.5317377686696</v>
       </c>
       <c r="G25" t="n">
-        <v>13.1770035350644</v>
+        <v>163.145928918168</v>
       </c>
       <c r="H25" t="n">
-        <v>13.1770035350644</v>
+        <v>87.58214718990794</v>
       </c>
       <c r="I25" t="n">
-        <v>13.1770035350644</v>
+        <v>18.86351453253812</v>
       </c>
       <c r="J25" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K25" t="n">
-        <v>79.6328731503413</v>
+        <v>77.3614028846938</v>
       </c>
       <c r="L25" t="n">
-        <v>195.4496646809552</v>
+        <v>191.2203662029044</v>
       </c>
       <c r="M25" t="n">
-        <v>323.1403693960783</v>
+        <v>316.9532427056241</v>
       </c>
       <c r="N25" t="n">
-        <v>455.3338865744156</v>
+        <v>447.188931671558</v>
       </c>
       <c r="O25" t="n">
-        <v>568.1758297322158</v>
+        <v>558.0730466169548</v>
       </c>
       <c r="P25" t="n">
-        <v>653.9842699273613</v>
+        <v>641.9236585996969</v>
       </c>
       <c r="Q25" t="n">
-        <v>657.1865136310848</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="R25" t="n">
-        <v>568.4019090596157</v>
+        <v>631.1786887456985</v>
       </c>
       <c r="S25" t="n">
-        <v>483.8866108457556</v>
+        <v>631.1786887456985</v>
       </c>
       <c r="T25" t="n">
-        <v>343.9381698590219</v>
+        <v>631.1786887456985</v>
       </c>
       <c r="U25" t="n">
-        <v>177.5618625981078</v>
+        <v>468.7625084196841</v>
       </c>
       <c r="V25" t="n">
-        <v>13.1770035350644</v>
+        <v>468.7625084196841</v>
       </c>
       <c r="W25" t="n">
-        <v>13.1770035350644</v>
+        <v>306.3463280936697</v>
       </c>
       <c r="X25" t="n">
-        <v>13.1770035350644</v>
+        <v>306.3463280936697</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.1770035350644</v>
+        <v>306.3463280936697</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13.1770035350644</v>
+        <v>580.0871757630498</v>
       </c>
       <c r="C26" t="n">
-        <v>13.1770035350644</v>
+        <v>580.0871757630498</v>
       </c>
       <c r="D26" t="n">
-        <v>13.1770035350644</v>
+        <v>580.0871757630498</v>
       </c>
       <c r="E26" t="n">
-        <v>13.1770035350644</v>
+        <v>417.6709954370354</v>
       </c>
       <c r="F26" t="n">
-        <v>13.1770035350644</v>
+        <v>417.6709954370354</v>
       </c>
       <c r="G26" t="n">
-        <v>13.1770035350644</v>
+        <v>255.254815111021</v>
       </c>
       <c r="H26" t="n">
-        <v>13.1770035350644</v>
+        <v>137.1632210514605</v>
       </c>
       <c r="I26" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J26" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K26" t="n">
-        <v>116.1920094459868</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="L26" t="n">
-        <v>279.2574281924087</v>
+        <v>172.047459819347</v>
       </c>
       <c r="M26" t="n">
-        <v>346.5898078641499</v>
+        <v>331.2315581568737</v>
       </c>
       <c r="N26" t="n">
-        <v>509.6552266105717</v>
+        <v>490.4156564944004</v>
       </c>
       <c r="O26" t="n">
-        <v>658.8501767532198</v>
+        <v>639.6106066370485</v>
       </c>
       <c r="P26" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="Q26" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="R26" t="n">
-        <v>658.8501767532198</v>
+        <v>580.0871757630498</v>
       </c>
       <c r="S26" t="n">
-        <v>658.8501767532198</v>
+        <v>580.0871757630498</v>
       </c>
       <c r="T26" t="n">
-        <v>658.8501767532198</v>
+        <v>580.0871757630498</v>
       </c>
       <c r="U26" t="n">
-        <v>512.3059253178067</v>
+        <v>580.0871757630498</v>
       </c>
       <c r="V26" t="n">
-        <v>512.3059253178067</v>
+        <v>580.0871757630498</v>
       </c>
       <c r="W26" t="n">
-        <v>345.9296180568926</v>
+        <v>580.0871757630498</v>
       </c>
       <c r="X26" t="n">
-        <v>179.5533107959785</v>
+        <v>580.0871757630498</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.1770035350644</v>
+        <v>580.0871757630498</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>233.1498001607511</v>
+        <v>234.7402934520334</v>
       </c>
       <c r="C27" t="n">
-        <v>146.2474699870064</v>
+        <v>148.5893132582419</v>
       </c>
       <c r="D27" t="n">
-        <v>84.86375943313752</v>
+        <v>148.5893132582419</v>
       </c>
       <c r="E27" t="n">
-        <v>13.1770035350644</v>
+        <v>148.5893132582419</v>
       </c>
       <c r="F27" t="n">
-        <v>13.1770035350644</v>
+        <v>90.35680437246243</v>
       </c>
       <c r="G27" t="n">
-        <v>13.1770035350644</v>
+        <v>39.92802804241347</v>
       </c>
       <c r="H27" t="n">
-        <v>13.1770035350644</v>
+        <v>14.86094153732833</v>
       </c>
       <c r="I27" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J27" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K27" t="n">
-        <v>138.5345635929018</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="L27" t="n">
-        <v>301.5999823393237</v>
+        <v>96.22122056510756</v>
       </c>
       <c r="M27" t="n">
-        <v>464.6654010857455</v>
+        <v>96.22122056510756</v>
       </c>
       <c r="N27" t="n">
-        <v>589.4556182398904</v>
+        <v>255.4053189026342</v>
       </c>
       <c r="O27" t="n">
-        <v>589.4556182398904</v>
+        <v>414.5894172401609</v>
       </c>
       <c r="P27" t="n">
-        <v>589.4556182398904</v>
+        <v>573.7735155776876</v>
       </c>
       <c r="Q27" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="R27" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="S27" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="T27" t="n">
-        <v>658.8501767532198</v>
+        <v>529.2835285371185</v>
       </c>
       <c r="U27" t="n">
-        <v>658.8501767532198</v>
+        <v>529.2835285371185</v>
       </c>
       <c r="V27" t="n">
-        <v>658.8501767532198</v>
+        <v>529.2835285371185</v>
       </c>
       <c r="W27" t="n">
-        <v>554.3248388291586</v>
+        <v>529.2835285371185</v>
       </c>
       <c r="X27" t="n">
-        <v>434.0240377310082</v>
+        <v>409.7340774189212</v>
       </c>
       <c r="Y27" t="n">
-        <v>313.8144380734367</v>
+        <v>314.6535813847659</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>283.5815735567518</v>
+        <v>93.49749532239171</v>
       </c>
       <c r="C28" t="n">
-        <v>202.1960897362273</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="D28" t="n">
-        <v>139.630149431274</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="E28" t="n">
-        <v>79.26775495626327</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="F28" t="n">
-        <v>19.92850656573532</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="G28" t="n">
-        <v>19.92850656573532</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="H28" t="n">
-        <v>19.92850656573532</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="I28" t="n">
-        <v>19.92850656573532</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J28" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K28" t="n">
-        <v>76.93864682258585</v>
+        <v>77.36140288469389</v>
       </c>
       <c r="L28" t="n">
-        <v>190.0612120254443</v>
+        <v>191.2203662029044</v>
       </c>
       <c r="M28" t="n">
-        <v>315.057690412812</v>
+        <v>316.9532427056241</v>
       </c>
       <c r="N28" t="n">
-        <v>444.5569812633938</v>
+        <v>447.188931671558</v>
       </c>
       <c r="O28" t="n">
-        <v>554.7046980934385</v>
+        <v>558.0730466169548</v>
       </c>
       <c r="P28" t="n">
-        <v>637.8189119608286</v>
+        <v>641.9236585996969</v>
       </c>
       <c r="Q28" t="n">
-        <v>638.3269293367966</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="R28" t="n">
-        <v>546.7933947298663</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="S28" t="n">
-        <v>408.0647018807111</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="T28" t="n">
-        <v>408.0647018807111</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="U28" t="n">
-        <v>377.6793392796092</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="V28" t="n">
-        <v>377.6793392796092</v>
+        <v>480.7518937650025</v>
       </c>
       <c r="W28" t="n">
-        <v>377.6793392796092</v>
+        <v>459.0219429321724</v>
       </c>
       <c r="X28" t="n">
-        <v>377.6793392796092</v>
+        <v>319.3344411214905</v>
       </c>
       <c r="Y28" t="n">
-        <v>377.6793392796092</v>
+        <v>186.8439110652959</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>658.8501767532198</v>
+        <v>245.9351554359228</v>
       </c>
       <c r="C29" t="n">
-        <v>658.8501767532198</v>
+        <v>175.2795418078347</v>
       </c>
       <c r="D29" t="n">
-        <v>658.8501767532198</v>
+        <v>175.2795418078347</v>
       </c>
       <c r="E29" t="n">
-        <v>492.4738694923057</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="F29" t="n">
-        <v>326.0975622313915</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="G29" t="n">
-        <v>159.7212549704774</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="H29" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="I29" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J29" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K29" t="n">
-        <v>116.1920094459868</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="L29" t="n">
-        <v>279.2574281924087</v>
+        <v>85.94487198126455</v>
       </c>
       <c r="M29" t="n">
-        <v>442.3228469388306</v>
+        <v>245.1289703187912</v>
       </c>
       <c r="N29" t="n">
-        <v>605.3882656852525</v>
+        <v>404.3130686563179</v>
       </c>
       <c r="O29" t="n">
-        <v>605.3882656852525</v>
+        <v>553.508018798966</v>
       </c>
       <c r="P29" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="Q29" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="R29" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="S29" t="n">
-        <v>658.8501767532198</v>
+        <v>570.7675160879515</v>
       </c>
       <c r="T29" t="n">
-        <v>658.8501767532198</v>
+        <v>570.7675160879515</v>
       </c>
       <c r="U29" t="n">
-        <v>658.8501767532198</v>
+        <v>570.7675160879515</v>
       </c>
       <c r="V29" t="n">
-        <v>658.8501767532198</v>
+        <v>408.3513357619372</v>
       </c>
       <c r="W29" t="n">
-        <v>658.8501767532198</v>
+        <v>245.9351554359228</v>
       </c>
       <c r="X29" t="n">
-        <v>658.8501767532198</v>
+        <v>245.9351554359228</v>
       </c>
       <c r="Y29" t="n">
-        <v>658.8501767532198</v>
+        <v>245.9351554359228</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>89.04371836383888</v>
+        <v>87.09951173323122</v>
       </c>
       <c r="C30" t="n">
-        <v>52.99540158462361</v>
+        <v>51.3773078694887</v>
       </c>
       <c r="D30" t="n">
-        <v>42.46570442528409</v>
+        <v>41.17372362562191</v>
       </c>
       <c r="E30" t="n">
-        <v>21.63296192174033</v>
+        <v>20.66709403755089</v>
       </c>
       <c r="F30" t="n">
-        <v>13.50311645053705</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="G30" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="H30" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="I30" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J30" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K30" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="L30" t="n">
-        <v>13.1770035350644</v>
+        <v>172.047459819347</v>
       </c>
       <c r="M30" t="n">
-        <v>176.2424222814863</v>
+        <v>324.7998774159636</v>
       </c>
       <c r="N30" t="n">
-        <v>339.3078410279082</v>
+        <v>483.9839757534903</v>
       </c>
       <c r="O30" t="n">
-        <v>495.7847580067979</v>
+        <v>483.9839757534903</v>
       </c>
       <c r="P30" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="Q30" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="R30" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="S30" t="n">
-        <v>623.8375447058004</v>
+        <v>608.4815549590703</v>
       </c>
       <c r="T30" t="n">
-        <v>560.0556625664782</v>
+        <v>556.1547784430343</v>
       </c>
       <c r="U30" t="n">
-        <v>470.236756804779</v>
+        <v>466.6619855968079</v>
       </c>
       <c r="V30" t="n">
-        <v>373.4893610749481</v>
+        <v>370.2407027824497</v>
       </c>
       <c r="W30" t="n">
-        <v>257.6567168486586</v>
+        <v>254.7341714716325</v>
       </c>
       <c r="X30" t="n">
-        <v>188.2099291450374</v>
+        <v>185.6134966834842</v>
       </c>
       <c r="Y30" t="n">
-        <v>118.8543428819952</v>
+        <v>116.5840233359148</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43.70847396105956</v>
+        <v>146.1778174788131</v>
       </c>
       <c r="C31" t="n">
-        <v>13.1770035350644</v>
+        <v>115.9724599682906</v>
       </c>
       <c r="D31" t="n">
-        <v>13.1770035350644</v>
+        <v>104.5866459733394</v>
       </c>
       <c r="E31" t="n">
-        <v>13.1770035350644</v>
+        <v>95.40437780833078</v>
       </c>
       <c r="F31" t="n">
-        <v>13.1770035350644</v>
+        <v>87.2452557278049</v>
       </c>
       <c r="G31" t="n">
-        <v>13.1770035350644</v>
+        <v>56.28822320735225</v>
       </c>
       <c r="H31" t="n">
-        <v>13.1770035350644</v>
+        <v>31.1532178091412</v>
       </c>
       <c r="I31" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J31" t="n">
-        <v>13.1770035350644</v>
+        <v>56.40785515789283</v>
       </c>
       <c r="K31" t="n">
-        <v>126.7806653505641</v>
+        <v>170.3311402418473</v>
       </c>
       <c r="L31" t="n">
-        <v>154.0947903582771</v>
+        <v>197.6452652495603</v>
       </c>
       <c r="M31" t="n">
-        <v>317.160209104699</v>
+        <v>236.8333034417825</v>
       </c>
       <c r="N31" t="n">
-        <v>360.8510597601353</v>
+        <v>396.0174017793092</v>
       </c>
       <c r="O31" t="n">
-        <v>520.8407951181582</v>
+        <v>459.2225592547927</v>
       </c>
       <c r="P31" t="n">
-        <v>653.7970275135265</v>
+        <v>592.4984149186158</v>
       </c>
       <c r="Q31" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="R31" t="n">
-        <v>618.1706555408189</v>
+        <v>602.8146657940888</v>
       </c>
       <c r="S31" t="n">
-        <v>618.1706555408189</v>
+        <v>602.8146657940888</v>
       </c>
       <c r="T31" t="n">
-        <v>526.3272979131533</v>
+        <v>511.297421081896</v>
       </c>
       <c r="U31" t="n">
-        <v>375.5208696509328</v>
+        <v>476.3695988869492</v>
       </c>
       <c r="V31" t="n">
-        <v>259.2410939469577</v>
+        <v>360.4159360984468</v>
       </c>
       <c r="W31" t="n">
-        <v>108.2286364119088</v>
+        <v>360.4159360984468</v>
       </c>
       <c r="X31" t="n">
-        <v>108.2286364119088</v>
+        <v>271.1572106178139</v>
       </c>
       <c r="Y31" t="n">
-        <v>43.70847396105956</v>
+        <v>189.0954568916683</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.7212549704774</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="C32" t="n">
-        <v>159.7212549704774</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="D32" t="n">
-        <v>159.7212549704774</v>
+        <v>480.7518937650025</v>
       </c>
       <c r="E32" t="n">
-        <v>159.7212549704774</v>
+        <v>337.6957221338491</v>
       </c>
       <c r="F32" t="n">
-        <v>13.1770035350644</v>
+        <v>175.2795418078347</v>
       </c>
       <c r="G32" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="H32" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="I32" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J32" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K32" t="n">
-        <v>116.1920094459868</v>
+        <v>115.8783673927427</v>
       </c>
       <c r="L32" t="n">
-        <v>279.2574281924087</v>
+        <v>275.0624657302694</v>
       </c>
       <c r="M32" t="n">
-        <v>442.3228469388306</v>
+        <v>275.0624657302694</v>
       </c>
       <c r="N32" t="n">
-        <v>569.1901214611688</v>
+        <v>404.3130686563179</v>
       </c>
       <c r="O32" t="n">
-        <v>569.1901214611688</v>
+        <v>553.508018798966</v>
       </c>
       <c r="P32" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="Q32" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="R32" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="S32" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="T32" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="U32" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="V32" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="W32" t="n">
-        <v>492.4738694923057</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="X32" t="n">
-        <v>326.0975622313915</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="Y32" t="n">
-        <v>326.0975622313915</v>
+        <v>643.1680740910169</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>89.04371836383899</v>
+        <v>87.09951173323122</v>
       </c>
       <c r="C33" t="n">
-        <v>52.99540158462371</v>
+        <v>51.3773078694887</v>
       </c>
       <c r="D33" t="n">
-        <v>42.46570442528419</v>
+        <v>41.17372362562191</v>
       </c>
       <c r="E33" t="n">
-        <v>21.63296192174042</v>
+        <v>20.66709403755089</v>
       </c>
       <c r="F33" t="n">
-        <v>13.50311645053714</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="G33" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="H33" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="I33" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J33" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K33" t="n">
-        <v>138.5345635929018</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="L33" t="n">
-        <v>301.5999823393237</v>
+        <v>172.047459819347</v>
       </c>
       <c r="M33" t="n">
-        <v>301.5999823393237</v>
+        <v>324.7998774159636</v>
       </c>
       <c r="N33" t="n">
-        <v>301.5999823393237</v>
+        <v>483.9839757534903</v>
       </c>
       <c r="O33" t="n">
-        <v>464.6654010857455</v>
+        <v>483.9839757534903</v>
       </c>
       <c r="P33" t="n">
-        <v>589.4556182398904</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="Q33" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="R33" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="S33" t="n">
-        <v>623.8375447058004</v>
+        <v>608.4815549590703</v>
       </c>
       <c r="T33" t="n">
-        <v>560.0556625664782</v>
+        <v>545.0257857352208</v>
       </c>
       <c r="U33" t="n">
-        <v>470.236756804779</v>
+        <v>455.5329928889943</v>
       </c>
       <c r="V33" t="n">
-        <v>373.4893610749481</v>
+        <v>359.1117100746361</v>
       </c>
       <c r="W33" t="n">
-        <v>257.6567168486582</v>
+        <v>243.605178763819</v>
       </c>
       <c r="X33" t="n">
-        <v>188.2099291450374</v>
+        <v>185.6134966834842</v>
       </c>
       <c r="Y33" t="n">
-        <v>118.8543428819953</v>
+        <v>116.5840233359148</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.7791775940169</v>
+        <v>115.2207849583604</v>
       </c>
       <c r="C34" t="n">
-        <v>75.24770716802175</v>
+        <v>85.01542744783798</v>
       </c>
       <c r="D34" t="n">
-        <v>75.24770716802175</v>
+        <v>73.62961345288674</v>
       </c>
       <c r="E34" t="n">
-        <v>65.73932608754039</v>
+        <v>64.44734528787812</v>
       </c>
       <c r="F34" t="n">
-        <v>57.25409109154178</v>
+        <v>56.28822320735225</v>
       </c>
       <c r="G34" t="n">
-        <v>57.25409109154178</v>
+        <v>56.28822320735225</v>
       </c>
       <c r="H34" t="n">
-        <v>31.79297277785799</v>
+        <v>31.1532178091412</v>
       </c>
       <c r="I34" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J34" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K34" t="n">
-        <v>126.7806653505641</v>
+        <v>126.7866465657748</v>
       </c>
       <c r="L34" t="n">
-        <v>289.7452490814007</v>
+        <v>154.1007715734878</v>
       </c>
       <c r="M34" t="n">
-        <v>452.8106678278226</v>
+        <v>193.28880976571</v>
       </c>
       <c r="N34" t="n">
-        <v>496.5015184832589</v>
+        <v>352.4729081032366</v>
       </c>
       <c r="O34" t="n">
-        <v>520.8407951181582</v>
+        <v>459.2225592547927</v>
       </c>
       <c r="P34" t="n">
-        <v>653.7970275135265</v>
+        <v>592.4984149186158</v>
       </c>
       <c r="Q34" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910169</v>
       </c>
       <c r="R34" t="n">
-        <v>618.1706555408189</v>
+        <v>602.8146657940888</v>
       </c>
       <c r="S34" t="n">
-        <v>618.1706555408189</v>
+        <v>555.233761531949</v>
       </c>
       <c r="T34" t="n">
-        <v>588.2878681990928</v>
+        <v>463.7165168197562</v>
       </c>
       <c r="U34" t="n">
-        <v>588.2878681990928</v>
+        <v>313.2362014730084</v>
       </c>
       <c r="V34" t="n">
-        <v>472.0080924951177</v>
+        <v>197.282538684506</v>
       </c>
       <c r="W34" t="n">
-        <v>320.9956349600689</v>
+        <v>197.282538684506</v>
       </c>
       <c r="X34" t="n">
-        <v>231.4107965639632</v>
+        <v>197.282538684506</v>
       </c>
       <c r="Y34" t="n">
-        <v>149.0229299223449</v>
+        <v>115.2207849583604</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>431.6330429658979</v>
+        <v>175.2795418078348</v>
       </c>
       <c r="C35" t="n">
-        <v>265.2567357049837</v>
+        <v>175.2795418078348</v>
       </c>
       <c r="D35" t="n">
-        <v>98.88042844406962</v>
+        <v>175.2795418078348</v>
       </c>
       <c r="E35" t="n">
-        <v>98.88042844406962</v>
+        <v>175.2795418078348</v>
       </c>
       <c r="F35" t="n">
-        <v>98.88042844406962</v>
+        <v>175.2795418078348</v>
       </c>
       <c r="G35" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="H35" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="I35" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J35" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K35" t="n">
-        <v>116.1920094459868</v>
+        <v>115.8783673927427</v>
       </c>
       <c r="L35" t="n">
-        <v>279.2574281924087</v>
+        <v>245.1289703187914</v>
       </c>
       <c r="M35" t="n">
-        <v>279.2574281924087</v>
+        <v>245.1289703187914</v>
       </c>
       <c r="N35" t="n">
-        <v>419.9951713185208</v>
+        <v>404.3130686563181</v>
       </c>
       <c r="O35" t="n">
-        <v>569.1901214611688</v>
+        <v>553.5080187989662</v>
       </c>
       <c r="P35" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="Q35" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="R35" t="n">
-        <v>598.009350226812</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="S35" t="n">
-        <v>598.009350226812</v>
+        <v>526.3388928086206</v>
       </c>
       <c r="T35" t="n">
-        <v>598.009350226812</v>
+        <v>526.3388928086206</v>
       </c>
       <c r="U35" t="n">
-        <v>598.009350226812</v>
+        <v>526.3388928086206</v>
       </c>
       <c r="V35" t="n">
-        <v>598.009350226812</v>
+        <v>526.3388928086206</v>
       </c>
       <c r="W35" t="n">
-        <v>598.009350226812</v>
+        <v>526.3388928086206</v>
       </c>
       <c r="X35" t="n">
-        <v>598.009350226812</v>
+        <v>363.9227124826061</v>
       </c>
       <c r="Y35" t="n">
-        <v>431.6330429658979</v>
+        <v>201.5065321565917</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>233.2355742544276</v>
+        <v>41.46248383078466</v>
       </c>
       <c r="C36" t="n">
-        <v>149.3246658621955</v>
+        <v>41.46248383078466</v>
       </c>
       <c r="D36" t="n">
-        <v>90.93237708983918</v>
+        <v>41.46248383078466</v>
       </c>
       <c r="E36" t="n">
-        <v>90.93237708983918</v>
+        <v>41.46248383078466</v>
       </c>
       <c r="F36" t="n">
-        <v>84.19272276707964</v>
+        <v>41.46248383078466</v>
       </c>
       <c r="G36" t="n">
-        <v>36.00401823859011</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="H36" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="I36" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J36" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K36" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="L36" t="n">
-        <v>100.2593620006248</v>
+        <v>172.0474598193471</v>
       </c>
       <c r="M36" t="n">
-        <v>263.3247807470467</v>
+        <v>331.2315581568738</v>
       </c>
       <c r="N36" t="n">
-        <v>426.3901994934686</v>
+        <v>490.4156564944005</v>
       </c>
       <c r="O36" t="n">
-        <v>589.4556182398904</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="P36" t="n">
-        <v>589.4556182398904</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="Q36" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="R36" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="S36" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="T36" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="U36" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="V36" t="n">
-        <v>514.2401894103721</v>
+        <v>502.3181679973278</v>
       </c>
       <c r="W36" t="n">
-        <v>350.5449535710654</v>
+        <v>342.3830134071795</v>
       </c>
       <c r="X36" t="n">
-        <v>233.2355742544276</v>
+        <v>228.8337153397</v>
       </c>
       <c r="Y36" t="n">
-        <v>233.2355742544276</v>
+        <v>115.3756187127994</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>331.3429442558411</v>
+        <v>225.6014776781098</v>
       </c>
       <c r="C37" t="n">
-        <v>252.9488822168291</v>
+        <v>150.9674968882562</v>
       </c>
       <c r="D37" t="n">
-        <v>193.3743636933883</v>
+        <v>150.9674968882562</v>
       </c>
       <c r="E37" t="n">
-        <v>136.0033909998902</v>
+        <v>150.9674968882562</v>
       </c>
       <c r="F37" t="n">
-        <v>79.65556439087479</v>
+        <v>150.9674968882562</v>
       </c>
       <c r="G37" t="n">
-        <v>79.65556439087479</v>
+        <v>75.58184108847237</v>
       </c>
       <c r="H37" t="n">
-        <v>79.65556439087479</v>
+        <v>75.58184108847237</v>
       </c>
       <c r="I37" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J37" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K37" t="n">
-        <v>79.87053931064632</v>
+        <v>83.24215288970237</v>
       </c>
       <c r="L37" t="n">
-        <v>195.9249970015651</v>
+        <v>202.9818662129214</v>
       </c>
       <c r="M37" t="n">
-        <v>323.8533678769933</v>
+        <v>334.5954927206496</v>
       </c>
       <c r="N37" t="n">
-        <v>456.2845512156355</v>
+        <v>470.711931691592</v>
       </c>
       <c r="O37" t="n">
-        <v>569.3641605337407</v>
+        <v>546.311546606938</v>
       </c>
       <c r="P37" t="n">
-        <v>655.4102668891912</v>
+        <v>636.0429085946886</v>
       </c>
       <c r="Q37" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="R37" t="n">
-        <v>570.3080639278021</v>
+        <v>558.3860425147578</v>
       </c>
       <c r="S37" t="n">
-        <v>434.5707928601594</v>
+        <v>426.4088526962735</v>
       </c>
       <c r="T37" t="n">
-        <v>422.4492881971858</v>
+        <v>426.4088526962735</v>
       </c>
       <c r="U37" t="n">
-        <v>422.4492881971858</v>
+        <v>426.4088526962735</v>
       </c>
       <c r="V37" t="n">
-        <v>422.4492881971858</v>
+        <v>426.4088526962735</v>
       </c>
       <c r="W37" t="n">
-        <v>422.4492881971858</v>
+        <v>312.9477403702962</v>
       </c>
       <c r="X37" t="n">
-        <v>422.4492881971858</v>
+        <v>312.9477403702962</v>
       </c>
       <c r="Y37" t="n">
-        <v>422.4492881971858</v>
+        <v>312.9477403702962</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>311.043780434343</v>
+        <v>175.2795418078348</v>
       </c>
       <c r="C38" t="n">
-        <v>311.043780434343</v>
+        <v>175.2795418078348</v>
       </c>
       <c r="D38" t="n">
-        <v>301.6130985640592</v>
+        <v>175.2795418078348</v>
       </c>
       <c r="E38" t="n">
-        <v>301.6130985640592</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="F38" t="n">
-        <v>301.6130985640592</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="G38" t="n">
-        <v>301.6130985640592</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="H38" t="n">
-        <v>135.2367913031451</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="I38" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J38" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K38" t="n">
-        <v>93.86433382567699</v>
+        <v>115.8783673927427</v>
       </c>
       <c r="L38" t="n">
-        <v>93.86433382567699</v>
+        <v>175.6049272733156</v>
       </c>
       <c r="M38" t="n">
-        <v>256.9297525720989</v>
+        <v>334.7890256108424</v>
       </c>
       <c r="N38" t="n">
-        <v>419.9951713185208</v>
+        <v>493.9731239483691</v>
       </c>
       <c r="O38" t="n">
-        <v>569.1901214611688</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="P38" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="Q38" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="R38" t="n">
-        <v>598.009350226812</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="S38" t="n">
-        <v>477.4200876952571</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="T38" t="n">
-        <v>477.4200876952571</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="U38" t="n">
-        <v>477.4200876952571</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="V38" t="n">
-        <v>311.043780434343</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="W38" t="n">
-        <v>311.043780434343</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="X38" t="n">
-        <v>311.043780434343</v>
+        <v>500.1119024598637</v>
       </c>
       <c r="Y38" t="n">
-        <v>311.043780434343</v>
+        <v>337.6957221338492</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>30.38666109062022</v>
+        <v>74.42799742129357</v>
       </c>
       <c r="C39" t="n">
-        <v>30.38666109062022</v>
+        <v>74.42799742129357</v>
       </c>
       <c r="D39" t="n">
-        <v>13.1770035350644</v>
+        <v>57.29198476115149</v>
       </c>
       <c r="E39" t="n">
-        <v>13.1770035350644</v>
+        <v>57.29198476115149</v>
       </c>
       <c r="F39" t="n">
-        <v>13.1770035350644</v>
+        <v>57.29198476115149</v>
       </c>
       <c r="G39" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="H39" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="I39" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J39" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K39" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="L39" t="n">
-        <v>176.2424222814863</v>
+        <v>172.0474598193471</v>
       </c>
       <c r="M39" t="n">
-        <v>339.3078410279082</v>
+        <v>331.2315581568738</v>
       </c>
       <c r="N39" t="n">
-        <v>495.7847580067979</v>
+        <v>331.2315581568738</v>
       </c>
       <c r="O39" t="n">
-        <v>658.8501767532198</v>
+        <v>414.5894172401611</v>
       </c>
       <c r="P39" t="n">
-        <v>658.8501767532198</v>
+        <v>573.7735155776878</v>
       </c>
       <c r="Q39" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="R39" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="S39" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="T39" t="n">
-        <v>547.2057030008808</v>
+        <v>535.2836815878366</v>
       </c>
       <c r="U39" t="n">
-        <v>409.5242056261648</v>
+        <v>535.2836815878366</v>
       </c>
       <c r="V39" t="n">
-        <v>264.914218283317</v>
+        <v>535.2836815878366</v>
       </c>
       <c r="W39" t="n">
-        <v>264.914218283317</v>
+        <v>375.3485269976883</v>
       </c>
       <c r="X39" t="n">
-        <v>147.6048389666792</v>
+        <v>261.7992289302088</v>
       </c>
       <c r="Y39" t="n">
-        <v>30.38666109062022</v>
+        <v>148.3411323033083</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>165.6464505107072</v>
+        <v>25.9762375526704</v>
       </c>
       <c r="C40" t="n">
-        <v>165.6464505107072</v>
+        <v>25.9762375526704</v>
       </c>
       <c r="D40" t="n">
-        <v>165.6464505107072</v>
+        <v>25.9762375526704</v>
       </c>
       <c r="E40" t="n">
-        <v>165.6464505107072</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="F40" t="n">
-        <v>165.6464505107072</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="G40" t="n">
-        <v>86.50071346176499</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="H40" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="I40" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J40" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K40" t="n">
-        <v>79.87053931064628</v>
+        <v>83.2421528897024</v>
       </c>
       <c r="L40" t="n">
-        <v>195.9249970015652</v>
+        <v>202.9818662129214</v>
       </c>
       <c r="M40" t="n">
-        <v>323.8533678769933</v>
+        <v>293.4302426855901</v>
       </c>
       <c r="N40" t="n">
-        <v>456.2845512156356</v>
+        <v>429.5466816565324</v>
       </c>
       <c r="O40" t="n">
-        <v>569.3641605337408</v>
+        <v>546.3115466069378</v>
       </c>
       <c r="P40" t="n">
-        <v>655.4102668891912</v>
+        <v>636.0429085946885</v>
       </c>
       <c r="Q40" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="R40" t="n">
-        <v>570.3080639278021</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="S40" t="n">
-        <v>570.3080639278021</v>
+        <v>511.1908842725329</v>
       </c>
       <c r="T40" t="n">
-        <v>570.3080639278021</v>
+        <v>511.1908842725329</v>
       </c>
       <c r="U40" t="n">
-        <v>570.3080639278021</v>
+        <v>348.7747039465184</v>
       </c>
       <c r="V40" t="n">
-        <v>406.1656966108102</v>
+        <v>188.3924178786849</v>
       </c>
       <c r="W40" t="n">
-        <v>303.0938805198296</v>
+        <v>25.9762375526704</v>
       </c>
       <c r="X40" t="n">
-        <v>165.6464505107072</v>
+        <v>25.9762375526704</v>
       </c>
       <c r="Y40" t="n">
-        <v>165.6464505107072</v>
+        <v>25.9762375526704</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>512.3059253178067</v>
+        <v>318.3357134389883</v>
       </c>
       <c r="C41" t="n">
-        <v>512.3059253178067</v>
+        <v>155.9195331129738</v>
       </c>
       <c r="D41" t="n">
-        <v>512.3059253178067</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="E41" t="n">
-        <v>345.9296180568926</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="F41" t="n">
-        <v>179.5533107959785</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="G41" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="H41" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="I41" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J41" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K41" t="n">
-        <v>116.1920094459868</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="L41" t="n">
-        <v>116.1920094459868</v>
+        <v>172.0474598193471</v>
       </c>
       <c r="M41" t="n">
-        <v>256.9297525720989</v>
+        <v>331.2315581568738</v>
       </c>
       <c r="N41" t="n">
-        <v>419.9951713185208</v>
+        <v>404.3130686563181</v>
       </c>
       <c r="O41" t="n">
-        <v>569.1901214611688</v>
+        <v>553.5080187989662</v>
       </c>
       <c r="P41" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="Q41" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="R41" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="S41" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="T41" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="U41" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="V41" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="W41" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="X41" t="n">
-        <v>512.3059253178067</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="Y41" t="n">
-        <v>512.3059253178067</v>
+        <v>480.7518937650027</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>72.77833590339721</v>
+        <v>218.4285874337413</v>
       </c>
       <c r="C42" t="n">
-        <v>72.77833590339721</v>
+        <v>135.5288302552065</v>
       </c>
       <c r="D42" t="n">
-        <v>69.16944061928447</v>
+        <v>135.5288302552065</v>
       </c>
       <c r="E42" t="n">
-        <v>69.16944061928447</v>
+        <v>67.84464735234316</v>
       </c>
       <c r="F42" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="G42" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="H42" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="I42" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J42" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K42" t="n">
-        <v>100.2593620006248</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="L42" t="n">
-        <v>263.3247807470467</v>
+        <v>172.0474598193471</v>
       </c>
       <c r="M42" t="n">
-        <v>263.3247807470467</v>
+        <v>324.7998774159637</v>
       </c>
       <c r="N42" t="n">
-        <v>263.3247807470467</v>
+        <v>483.9839757534904</v>
       </c>
       <c r="O42" t="n">
-        <v>426.3901994934686</v>
+        <v>483.9839757534904</v>
       </c>
       <c r="P42" t="n">
-        <v>589.4556182398904</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="Q42" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="R42" t="n">
-        <v>658.8501767532198</v>
+        <v>633.5518167464951</v>
       </c>
       <c r="S42" t="n">
-        <v>575.9749530927836</v>
+        <v>551.6877442997561</v>
       </c>
       <c r="T42" t="n">
-        <v>575.9749530927836</v>
+        <v>441.0544217611144</v>
       </c>
       <c r="U42" t="n">
-        <v>575.9749530927836</v>
+        <v>304.3840756000957</v>
       </c>
       <c r="V42" t="n">
-        <v>431.3649657499359</v>
+        <v>304.3840756000957</v>
       </c>
       <c r="W42" t="n">
-        <v>267.6697299106293</v>
+        <v>304.3840756000957</v>
       </c>
       <c r="X42" t="n">
-        <v>267.6697299106293</v>
+        <v>295.090652351217</v>
       </c>
       <c r="Y42" t="n">
-        <v>150.4515520345703</v>
+        <v>295.090652351217</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>149.8353132343641</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="C43" t="n">
-        <v>149.8353132343641</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="D43" t="n">
-        <v>90.26079471092334</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="E43" t="n">
-        <v>90.26079471092334</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="F43" t="n">
-        <v>90.26079471092334</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="G43" t="n">
-        <v>90.26079471092334</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="H43" t="n">
-        <v>16.93708478422275</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="I43" t="n">
-        <v>16.93708478422275</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="J43" t="n">
-        <v>13.1770035350644</v>
+        <v>12.86336148182034</v>
       </c>
       <c r="K43" t="n">
-        <v>79.87053931064628</v>
+        <v>62.67319998974874</v>
       </c>
       <c r="L43" t="n">
-        <v>195.9249970015652</v>
+        <v>179.7186869852123</v>
       </c>
       <c r="M43" t="n">
-        <v>323.8533678769933</v>
+        <v>308.6380871651851</v>
       </c>
       <c r="N43" t="n">
-        <v>456.2845512156356</v>
+        <v>442.0602998083721</v>
       </c>
       <c r="O43" t="n">
-        <v>569.3641605337408</v>
+        <v>556.1309384310219</v>
       </c>
       <c r="P43" t="n">
-        <v>655.4102668891912</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="Q43" t="n">
-        <v>658.8501767532198</v>
+        <v>643.1680740910172</v>
       </c>
       <c r="R43" t="n">
-        <v>570.3080639278021</v>
+        <v>555.6371124792968</v>
       </c>
       <c r="S43" t="n">
-        <v>434.5707928601594</v>
+        <v>440.9551276441978</v>
       </c>
       <c r="T43" t="n">
-        <v>434.5707928601594</v>
+        <v>440.9551276441978</v>
       </c>
       <c r="U43" t="n">
-        <v>417.5332014981216</v>
+        <v>440.9551276441978</v>
       </c>
       <c r="V43" t="n">
-        <v>417.5332014981216</v>
+        <v>440.9551276441978</v>
       </c>
       <c r="W43" t="n">
-        <v>417.5332014981216</v>
+        <v>278.5389473181833</v>
       </c>
       <c r="X43" t="n">
-        <v>280.0857714889992</v>
+        <v>142.1026685227582</v>
       </c>
       <c r="Y43" t="n">
-        <v>149.8353132343641</v>
+        <v>12.86336148182034</v>
       </c>
     </row>
     <row r="44">
@@ -9401,22 +9401,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>400.4789591582922</v>
+        <v>366.3225795417536</v>
       </c>
       <c r="M20" t="n">
-        <v>395.0587774155777</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>394.1256077848959</v>
+        <v>390.2050821193452</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>238.5885178120793</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>303.2669239681791</v>
+        <v>292.8497510895879</v>
       </c>
       <c r="M21" t="n">
-        <v>306.8465781103233</v>
+        <v>302.9260524447726</v>
       </c>
       <c r="N21" t="n">
-        <v>296.0542562716382</v>
+        <v>292.1337306060876</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>303.3882629671987</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>171.4154679456704</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,19 +9638,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>400.4789591582922</v>
+        <v>309.5861225451835</v>
       </c>
       <c r="M23" t="n">
-        <v>395.0587774155777</v>
+        <v>391.1382517500269</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>390.2050821193451</v>
       </c>
       <c r="O23" t="n">
-        <v>358.2469735654627</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>303.2669239681791</v>
+        <v>222.7542374397603</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>302.9260524447726</v>
       </c>
       <c r="N24" t="n">
-        <v>162.7754059429822</v>
+        <v>292.1337306060875</v>
       </c>
       <c r="O24" t="n">
-        <v>307.3087886327494</v>
+        <v>303.3882629671987</v>
       </c>
       <c r="P24" t="n">
-        <v>298.6869516026352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,22 +9875,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>400.4789591582922</v>
+        <v>396.5584334927415</v>
       </c>
       <c r="M26" t="n">
-        <v>298.3587379462032</v>
+        <v>391.1382517500269</v>
       </c>
       <c r="N26" t="n">
-        <v>394.1256077848959</v>
+        <v>390.2050821193451</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>234.8263972239245</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>303.2669239681791</v>
+        <v>222.7542374397603</v>
       </c>
       <c r="M27" t="n">
-        <v>306.8465781103233</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>257.3924364814595</v>
+        <v>292.1337306060875</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>303.3882629671987</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>294.7664259370845</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10112,22 +10112,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>400.4789591582922</v>
+        <v>309.5861225451835</v>
       </c>
       <c r="M29" t="n">
-        <v>395.0587774155777</v>
+        <v>391.1382517500269</v>
       </c>
       <c r="N29" t="n">
-        <v>394.1256077848959</v>
+        <v>390.2050821193451</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>285.2349261269537</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10194,19 +10194,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>299.3463983026284</v>
       </c>
       <c r="M30" t="n">
-        <v>306.8465781103233</v>
+        <v>296.4294052317321</v>
       </c>
       <c r="N30" t="n">
-        <v>296.0542562716382</v>
+        <v>292.1337306060875</v>
       </c>
       <c r="O30" t="n">
-        <v>300.6537363423129</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>298.6869516026352</v>
+        <v>294.7664259370845</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10352,16 +10352,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>400.4789591582922</v>
+        <v>396.5584334927415</v>
       </c>
       <c r="M32" t="n">
-        <v>395.0587774155777</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>357.5618257403669</v>
+        <v>359.9692281683571</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>303.2669239681791</v>
+        <v>299.3463983026284</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>296.4294052317321</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>292.1337306060875</v>
       </c>
       <c r="O33" t="n">
-        <v>307.3087886327494</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>260.0251318124564</v>
+        <v>294.7664259370845</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,13 +10589,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>400.4789591582922</v>
+        <v>366.3225795417536</v>
       </c>
       <c r="M35" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>371.5724000876132</v>
+        <v>390.2050821193452</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10668,22 +10668,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>226.516358027915</v>
+        <v>299.3463983026285</v>
       </c>
       <c r="M36" t="n">
-        <v>306.8465781103233</v>
+        <v>302.9260524447726</v>
       </c>
       <c r="N36" t="n">
-        <v>296.0542562716382</v>
+        <v>292.1337306060876</v>
       </c>
       <c r="O36" t="n">
-        <v>307.3087886327494</v>
+        <v>296.8916157541582</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,22 +10823,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>301.5922048738822</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>296.0962734352124</v>
       </c>
       <c r="M38" t="n">
-        <v>395.0587774155777</v>
+        <v>391.1382517500271</v>
       </c>
       <c r="N38" t="n">
-        <v>394.1256077848959</v>
+        <v>390.2050821193452</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10905,22 +10905,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>303.2669239681791</v>
+        <v>299.3463983026285</v>
       </c>
       <c r="M39" t="n">
-        <v>306.8465781103233</v>
+        <v>302.9260524447726</v>
       </c>
       <c r="N39" t="n">
-        <v>289.3992039812017</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>307.3087886327494</v>
+        <v>226.7961021043306</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>294.7664259370845</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,16 +11060,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>396.5584334927415</v>
       </c>
       <c r="M41" t="n">
-        <v>372.5055697182951</v>
+        <v>391.1382517500271</v>
       </c>
       <c r="N41" t="n">
-        <v>394.1256077848959</v>
+        <v>303.2327711717872</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>225.8034172223998</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>303.2669239681791</v>
+        <v>299.3463983026285</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>296.4294052317321</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>292.1337306060876</v>
       </c>
       <c r="O42" t="n">
-        <v>307.3087886327494</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>298.6869516026352</v>
+        <v>294.7664259370845</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>340.7211745089521</v>
+        <v>339.2991501135563</v>
       </c>
       <c r="C14" t="n">
-        <v>323.2602246164791</v>
+        <v>321.8382002210832</v>
       </c>
       <c r="D14" t="n">
-        <v>312.6703744661545</v>
+        <v>311.2483500707586</v>
       </c>
       <c r="E14" t="n">
-        <v>339.9177029177333</v>
+        <v>338.4956785223375</v>
       </c>
       <c r="F14" t="n">
-        <v>364.863378587183</v>
+        <v>363.4413541917871</v>
       </c>
       <c r="G14" t="n">
-        <v>373.2900703606066</v>
+        <v>371.8680459652107</v>
       </c>
       <c r="H14" t="n">
-        <v>297.4621349612387</v>
+        <v>296.0401105658428</v>
       </c>
       <c r="I14" t="n">
-        <v>168.4632224158775</v>
+        <v>167.0411980204816</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>107.8564507866212</v>
+        <v>106.4344263912253</v>
       </c>
       <c r="S14" t="n">
-        <v>167.0074024317169</v>
+        <v>165.585378036321</v>
       </c>
       <c r="T14" t="n">
-        <v>181.0831824096029</v>
+        <v>179.661158014207</v>
       </c>
       <c r="U14" t="n">
-        <v>209.332985753308</v>
+        <v>207.9109613579122</v>
       </c>
       <c r="V14" t="n">
-        <v>285.7395913156064</v>
+        <v>284.3175669202105</v>
       </c>
       <c r="W14" t="n">
-        <v>307.2283015628846</v>
+        <v>305.8062771674887</v>
       </c>
       <c r="X14" t="n">
-        <v>327.7184335239406</v>
+        <v>326.2964091285447</v>
       </c>
       <c r="Y14" t="n">
-        <v>344.2252715015251</v>
+        <v>342.8032471061292</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>124.5205164953389</v>
+        <v>123.098492099943</v>
       </c>
       <c r="C15" t="n">
-        <v>130.6958318337873</v>
+        <v>129.2738074383914</v>
       </c>
       <c r="D15" t="n">
-        <v>105.4323984101103</v>
+        <v>104.0103740147144</v>
       </c>
       <c r="E15" t="n">
-        <v>115.6324133008725</v>
+        <v>114.2103889054766</v>
       </c>
       <c r="F15" t="n">
-        <v>103.0565452388554</v>
+        <v>101.6345208434595</v>
       </c>
       <c r="G15" t="n">
-        <v>95.33085000868218</v>
+        <v>93.9088256132863</v>
       </c>
       <c r="H15" t="n">
-        <v>70.222777081968</v>
+        <v>68.80075268657212</v>
       </c>
       <c r="I15" t="n">
-        <v>47.38396569688662</v>
+        <v>45.96194130149074</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>58.14516699811468</v>
+        <v>56.7231426027188</v>
       </c>
       <c r="S15" t="n">
-        <v>129.6705039493094</v>
+        <v>128.2484795539135</v>
       </c>
       <c r="T15" t="n">
-        <v>158.1520615402931</v>
+        <v>156.7300371448973</v>
       </c>
       <c r="U15" t="n">
-        <v>183.9287149264464</v>
+        <v>182.5066905310505</v>
       </c>
       <c r="V15" t="n">
-        <v>190.7879199948968</v>
+        <v>189.3658955995009</v>
       </c>
       <c r="W15" t="n">
-        <v>209.6823160063911</v>
+        <v>208.2602916109953</v>
       </c>
       <c r="X15" t="n">
-        <v>163.760318048949</v>
+        <v>162.3382936535531</v>
       </c>
       <c r="Y15" t="n">
-        <v>163.6700286227759</v>
+        <v>162.24800422738</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>137.8193130274088</v>
+        <v>136.397288632013</v>
       </c>
       <c r="C16" t="n">
-        <v>125.2341539440994</v>
+        <v>123.8121295487035</v>
       </c>
       <c r="D16" t="n">
-        <v>106.6028058636839</v>
+        <v>105.180781468288</v>
       </c>
       <c r="E16" t="n">
-        <v>104.4212954920407</v>
+        <v>102.9992710966448</v>
       </c>
       <c r="F16" t="n">
-        <v>103.4083808684028</v>
+        <v>101.9863564730069</v>
       </c>
       <c r="G16" t="n">
-        <v>125.9783122039303</v>
+        <v>124.5562878085344</v>
       </c>
       <c r="H16" t="n">
-        <v>120.2145053529111</v>
+        <v>118.7924809575152</v>
       </c>
       <c r="I16" t="n">
-        <v>113.4378077727298</v>
+        <v>112.0157833773339</v>
       </c>
       <c r="J16" t="n">
-        <v>51.34651296214432</v>
+        <v>49.92448856674844</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23695,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.14937609716593</v>
+        <v>42.72735170177005</v>
       </c>
       <c r="R16" t="n">
-        <v>135.280724222641</v>
+        <v>133.8586998272451</v>
       </c>
       <c r="S16" t="n">
-        <v>182.0039308824438</v>
+        <v>180.5819064870479</v>
       </c>
       <c r="T16" t="n">
-        <v>185.932922273753</v>
+        <v>184.5108978783572</v>
       </c>
       <c r="U16" t="n">
-        <v>244.3063622019624</v>
+        <v>242.8843378065665</v>
       </c>
       <c r="V16" t="n">
-        <v>210.1249761692995</v>
+        <v>208.7029517739037</v>
       </c>
       <c r="W16" t="n">
-        <v>244.5103311820625</v>
+        <v>243.0883067866667</v>
       </c>
       <c r="X16" t="n">
-        <v>183.6969882345087</v>
+        <v>182.2749638391128</v>
       </c>
       <c r="Y16" t="n">
-        <v>176.5719861975663</v>
+        <v>175.1499618021705</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>340.7211745089521</v>
+        <v>339.2991501135563</v>
       </c>
       <c r="C17" t="n">
-        <v>323.2602246164791</v>
+        <v>321.8382002210832</v>
       </c>
       <c r="D17" t="n">
-        <v>312.6703744661545</v>
+        <v>311.2483500707586</v>
       </c>
       <c r="E17" t="n">
-        <v>339.9177029177333</v>
+        <v>338.4956785223375</v>
       </c>
       <c r="F17" t="n">
-        <v>364.863378587183</v>
+        <v>363.4413541917871</v>
       </c>
       <c r="G17" t="n">
-        <v>373.2900703606066</v>
+        <v>371.8680459652107</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4621349612387</v>
+        <v>296.0401105658428</v>
       </c>
       <c r="I17" t="n">
-        <v>168.4632224158775</v>
+        <v>167.0411980204816</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>107.8564507866212</v>
+        <v>106.4344263912253</v>
       </c>
       <c r="S17" t="n">
-        <v>167.0074024317169</v>
+        <v>165.585378036321</v>
       </c>
       <c r="T17" t="n">
-        <v>181.0831824096029</v>
+        <v>179.661158014207</v>
       </c>
       <c r="U17" t="n">
-        <v>209.332985753308</v>
+        <v>207.9109613579122</v>
       </c>
       <c r="V17" t="n">
-        <v>285.7395913156064</v>
+        <v>284.3175669202105</v>
       </c>
       <c r="W17" t="n">
-        <v>307.2283015628846</v>
+        <v>305.8062771674887</v>
       </c>
       <c r="X17" t="n">
-        <v>327.7184335239406</v>
+        <v>326.2964091285447</v>
       </c>
       <c r="Y17" t="n">
-        <v>344.2252715015251</v>
+        <v>342.8032471061292</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>124.5205164953389</v>
+        <v>123.098492099943</v>
       </c>
       <c r="C18" t="n">
-        <v>130.6958318337873</v>
+        <v>129.2738074383914</v>
       </c>
       <c r="D18" t="n">
-        <v>105.4323984101103</v>
+        <v>104.0103740147144</v>
       </c>
       <c r="E18" t="n">
-        <v>115.6324133008725</v>
+        <v>114.2103889054766</v>
       </c>
       <c r="F18" t="n">
-        <v>103.0565452388554</v>
+        <v>101.6345208434595</v>
       </c>
       <c r="G18" t="n">
-        <v>95.33085000868218</v>
+        <v>93.9088256132863</v>
       </c>
       <c r="H18" t="n">
-        <v>70.222777081968</v>
+        <v>68.80075268657212</v>
       </c>
       <c r="I18" t="n">
-        <v>47.38396569688662</v>
+        <v>45.96194130149074</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>58.14516699811468</v>
+        <v>56.7231426027188</v>
       </c>
       <c r="S18" t="n">
-        <v>129.6705039493094</v>
+        <v>128.2484795539135</v>
       </c>
       <c r="T18" t="n">
-        <v>158.1520615402931</v>
+        <v>156.7300371448973</v>
       </c>
       <c r="U18" t="n">
-        <v>183.9287149264464</v>
+        <v>182.5066905310505</v>
       </c>
       <c r="V18" t="n">
-        <v>190.7879199948968</v>
+        <v>189.3658955995009</v>
       </c>
       <c r="W18" t="n">
-        <v>209.6823160063911</v>
+        <v>208.2602916109953</v>
       </c>
       <c r="X18" t="n">
-        <v>163.760318048949</v>
+        <v>162.3382936535531</v>
       </c>
       <c r="Y18" t="n">
-        <v>163.6700286227759</v>
+        <v>162.24800422738</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>137.8193130274088</v>
+        <v>136.397288632013</v>
       </c>
       <c r="C19" t="n">
-        <v>125.2341539440994</v>
+        <v>123.8121295487035</v>
       </c>
       <c r="D19" t="n">
-        <v>106.6028058636839</v>
+        <v>105.180781468288</v>
       </c>
       <c r="E19" t="n">
-        <v>104.4212954920407</v>
+        <v>102.9992710966448</v>
       </c>
       <c r="F19" t="n">
-        <v>103.4083808684028</v>
+        <v>101.9863564730069</v>
       </c>
       <c r="G19" t="n">
-        <v>125.9783122039303</v>
+        <v>124.5562878085344</v>
       </c>
       <c r="H19" t="n">
-        <v>120.2145053529111</v>
+        <v>118.7924809575152</v>
       </c>
       <c r="I19" t="n">
-        <v>113.4378077727298</v>
+        <v>112.0157833773339</v>
       </c>
       <c r="J19" t="n">
-        <v>51.34651296214432</v>
+        <v>49.92448856674844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.14937609716593</v>
+        <v>42.72735170177005</v>
       </c>
       <c r="R19" t="n">
-        <v>135.280724222641</v>
+        <v>133.8586998272451</v>
       </c>
       <c r="S19" t="n">
-        <v>182.0039308824438</v>
+        <v>180.5819064870479</v>
       </c>
       <c r="T19" t="n">
-        <v>185.932922273753</v>
+        <v>184.5108978783572</v>
       </c>
       <c r="U19" t="n">
-        <v>244.3063622019624</v>
+        <v>242.8843378065665</v>
       </c>
       <c r="V19" t="n">
-        <v>210.1249761692995</v>
+        <v>208.7029517739037</v>
       </c>
       <c r="W19" t="n">
-        <v>244.5103311820625</v>
+        <v>243.0883067866667</v>
       </c>
       <c r="X19" t="n">
-        <v>183.6969882345087</v>
+        <v>182.2749638391128</v>
       </c>
       <c r="Y19" t="n">
-        <v>176.5719861975663</v>
+        <v>175.1499618021705</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>293.3372088120655</v>
+        <v>295.3148130670183</v>
       </c>
       <c r="C20" t="n">
-        <v>275.8762589195925</v>
+        <v>277.8538631745454</v>
       </c>
       <c r="D20" t="n">
-        <v>265.2864087692679</v>
+        <v>267.2640130242207</v>
       </c>
       <c r="E20" t="n">
-        <v>292.5337372208467</v>
+        <v>133.7193229530453</v>
       </c>
       <c r="F20" t="n">
-        <v>317.4794128902964</v>
+        <v>158.6649986224949</v>
       </c>
       <c r="G20" t="n">
-        <v>193.4471492470375</v>
+        <v>167.0916903959185</v>
       </c>
       <c r="H20" t="n">
-        <v>250.0781692643521</v>
+        <v>252.0557735193049</v>
       </c>
       <c r="I20" t="n">
-        <v>121.0792567189908</v>
+        <v>117.1080720267709</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>62.45008934468748</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>121.6010409897831</v>
       </c>
       <c r="T20" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>163.9266243113743</v>
       </c>
       <c r="V20" t="n">
-        <v>73.6430814304149</v>
+        <v>240.3332298736727</v>
       </c>
       <c r="W20" t="n">
-        <v>259.8443358659979</v>
+        <v>261.8219401209508</v>
       </c>
       <c r="X20" t="n">
-        <v>280.334467827054</v>
+        <v>282.3120720820068</v>
       </c>
       <c r="Y20" t="n">
-        <v>296.8413058046385</v>
+        <v>298.8189100595914</v>
       </c>
     </row>
     <row r="21">
@@ -24045,19 +24045,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77.13655079845226</v>
+        <v>79.11415505340514</v>
       </c>
       <c r="C21" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>55.6725795419688</v>
+        <v>57.65018379692168</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24099,22 +24099,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>138.5223534845126</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>145.3815585529631</v>
       </c>
       <c r="W21" t="n">
-        <v>83.15011052751768</v>
+        <v>164.2759545644574</v>
       </c>
       <c r="X21" t="n">
-        <v>116.3763523520624</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>114.624674147373</v>
       </c>
     </row>
     <row r="22">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>92.4129515854751</v>
       </c>
       <c r="C22" t="n">
-        <v>77.85018824721276</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>59.21884016679728</v>
+        <v>61.19644442175016</v>
       </c>
       <c r="E22" t="n">
-        <v>57.03732979515409</v>
+        <v>59.01493405010697</v>
       </c>
       <c r="F22" t="n">
-        <v>56.02441517151617</v>
+        <v>58.00201942646905</v>
       </c>
       <c r="G22" t="n">
-        <v>78.59434650704368</v>
+        <v>80.57195076199656</v>
       </c>
       <c r="H22" t="n">
-        <v>72.8305396560245</v>
+        <v>74.80814391097738</v>
       </c>
       <c r="I22" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>49.92035772173663</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>136.5975694405101</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>140.5265608318193</v>
       </c>
       <c r="U22" t="n">
-        <v>196.9223965050758</v>
+        <v>198.9000007600287</v>
       </c>
       <c r="V22" t="n">
-        <v>162.7410104724129</v>
+        <v>164.7186147273658</v>
       </c>
       <c r="W22" t="n">
-        <v>144.2085458747534</v>
+        <v>38.31195121737451</v>
       </c>
       <c r="X22" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>293.3372088120655</v>
+        <v>295.3148130670184</v>
       </c>
       <c r="C23" t="n">
-        <v>111.1637147312875</v>
+        <v>277.8538631745454</v>
       </c>
       <c r="D23" t="n">
-        <v>265.2864087692679</v>
+        <v>267.2640130242208</v>
       </c>
       <c r="E23" t="n">
-        <v>292.5337372208467</v>
+        <v>294.5113414757996</v>
       </c>
       <c r="F23" t="n">
-        <v>293.4798606882283</v>
+        <v>319.4570171452493</v>
       </c>
       <c r="G23" t="n">
-        <v>325.90610466372</v>
+        <v>184.4020132604624</v>
       </c>
       <c r="H23" t="n">
-        <v>85.36562507604714</v>
+        <v>252.055773519305</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>123.0568609739437</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>161.9490200564214</v>
+        <v>3.134605788620092</v>
       </c>
       <c r="V23" t="n">
-        <v>238.3556256187198</v>
+        <v>240.3332298736727</v>
       </c>
       <c r="W23" t="n">
-        <v>259.8443358659979</v>
+        <v>261.8219401209508</v>
       </c>
       <c r="X23" t="n">
-        <v>280.334467827054</v>
+        <v>282.3120720820069</v>
       </c>
       <c r="Y23" t="n">
-        <v>132.1287616163336</v>
+        <v>298.8189100595914</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24282,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>50.04706173091813</v>
       </c>
       <c r="C24" t="n">
-        <v>83.31186613690066</v>
+        <v>85.28947039185357</v>
       </c>
       <c r="D24" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>24.81641564003429</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>138.5223534845126</v>
       </c>
       <c r="V24" t="n">
-        <v>143.4039542980102</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>74.36995333071752</v>
+        <v>164.2759545644574</v>
       </c>
       <c r="X24" t="n">
-        <v>116.3763523520624</v>
+        <v>118.3539566070153</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>118.2636671808422</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.43534733052222</v>
+        <v>92.41295158547513</v>
       </c>
       <c r="C25" t="n">
-        <v>77.85018824721276</v>
+        <v>79.82779250216566</v>
       </c>
       <c r="D25" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>57.03732979515409</v>
+        <v>59.014934050107</v>
       </c>
       <c r="F25" t="n">
-        <v>56.02441517151617</v>
+        <v>58.00201942646908</v>
       </c>
       <c r="G25" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>78.00487128884211</v>
       </c>
       <c r="S25" t="n">
-        <v>50.9498199538357</v>
+        <v>136.5975694405101</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>140.5265608318193</v>
       </c>
       <c r="U25" t="n">
-        <v>32.20985231677088</v>
+        <v>38.10798223727448</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>164.7186147273658</v>
       </c>
       <c r="W25" t="n">
-        <v>197.1263654851759</v>
+        <v>38.3119512173746</v>
       </c>
       <c r="X25" t="n">
-        <v>136.3130225376221</v>
+        <v>138.290626792575</v>
       </c>
       <c r="Y25" t="n">
-        <v>129.1880205006797</v>
+        <v>131.1656247556326</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>296.058649547172</v>
+        <v>295.3148130670184</v>
       </c>
       <c r="C26" t="n">
-        <v>278.597699654699</v>
+        <v>277.8538631745454</v>
       </c>
       <c r="D26" t="n">
-        <v>268.0078495043744</v>
+        <v>267.2640130242208</v>
       </c>
       <c r="E26" t="n">
-        <v>295.2551779559532</v>
+        <v>133.7193229530454</v>
       </c>
       <c r="F26" t="n">
-        <v>320.2008536254029</v>
+        <v>319.4570171452493</v>
       </c>
       <c r="G26" t="n">
-        <v>328.6275453988265</v>
+        <v>167.0916903959186</v>
       </c>
       <c r="H26" t="n">
-        <v>252.7996099994586</v>
+        <v>135.1450954003401</v>
       </c>
       <c r="I26" t="n">
-        <v>123.8006974540973</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>63.19392582484112</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>122.3448774699368</v>
+        <v>121.6010409897832</v>
       </c>
       <c r="T26" t="n">
-        <v>136.4206574478228</v>
+        <v>135.6768209676692</v>
       </c>
       <c r="U26" t="n">
-        <v>19.59165187046898</v>
+        <v>163.9266243113743</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0770663538264</v>
+        <v>240.3332298736727</v>
       </c>
       <c r="W26" t="n">
-        <v>97.85323241279951</v>
+        <v>261.8219401209508</v>
       </c>
       <c r="X26" t="n">
-        <v>118.3433643738555</v>
+        <v>282.3120720820069</v>
       </c>
       <c r="Y26" t="n">
-        <v>134.8502023514401</v>
+        <v>298.8189100595914</v>
       </c>
     </row>
     <row r="27">
@@ -24525,22 +24525,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>60.02603696817658</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>70.22605185893877</v>
       </c>
       <c r="F27" t="n">
-        <v>58.39402027707531</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>50.66832504690207</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>25.5602521201879</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>13.48264203633457</v>
+        <v>12.73880555618096</v>
       </c>
       <c r="S27" t="n">
-        <v>85.00797898752926</v>
+        <v>84.26414250737565</v>
       </c>
       <c r="T27" t="n">
-        <v>113.489536578513</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>139.2661899646662</v>
+        <v>138.5223534845126</v>
       </c>
       <c r="V27" t="n">
-        <v>146.1253950331167</v>
+        <v>145.3815585529631</v>
       </c>
       <c r="W27" t="n">
-        <v>61.53970649979047</v>
+        <v>164.2759545644574</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>24.13397610702843</v>
       </c>
     </row>
     <row r="28">
@@ -24604,25 +24604,25 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>61.19644442175019</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>59.014934050107</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>58.00201942646908</v>
       </c>
       <c r="G28" t="n">
-        <v>81.31578724215019</v>
+        <v>80.57195076199659</v>
       </c>
       <c r="H28" t="n">
-        <v>75.55198039113101</v>
+        <v>74.80814391097741</v>
       </c>
       <c r="I28" t="n">
-        <v>68.77528281094972</v>
+        <v>68.03144633079611</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>5.940151520210605</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>89.87436278070732</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>136.5975694405101</v>
       </c>
       <c r="T28" t="n">
-        <v>141.2703973119729</v>
+        <v>140.5265608318193</v>
       </c>
       <c r="U28" t="n">
-        <v>169.5623282650915</v>
+        <v>198.9000007600287</v>
       </c>
       <c r="V28" t="n">
-        <v>165.4624512075195</v>
+        <v>3.926596204611599</v>
       </c>
       <c r="W28" t="n">
-        <v>199.8478062202825</v>
+        <v>177.5913184156269</v>
       </c>
       <c r="X28" t="n">
-        <v>139.0344632727286</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>131.9094612357862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>245.713176286588</v>
+        <v>245.3903245002699</v>
       </c>
       <c r="C29" t="n">
-        <v>228.2522263941149</v>
+        <v>157.9803171159898</v>
       </c>
       <c r="D29" t="n">
-        <v>217.6623762437903</v>
+        <v>217.3395244574723</v>
       </c>
       <c r="E29" t="n">
-        <v>80.19716050706421</v>
+        <v>83.79483438629691</v>
       </c>
       <c r="F29" t="n">
-        <v>105.1428361765139</v>
+        <v>269.5325285785008</v>
       </c>
       <c r="G29" t="n">
-        <v>113.5695279499375</v>
+        <v>277.9592203519244</v>
       </c>
       <c r="H29" t="n">
-        <v>57.37532781781564</v>
+        <v>202.1312849525565</v>
       </c>
       <c r="I29" t="n">
-        <v>73.45522419351329</v>
+        <v>73.13237240719528</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>12.84845256425706</v>
+        <v>12.52560077793905</v>
       </c>
       <c r="S29" t="n">
-        <v>71.99940420935272</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>86.07518418723873</v>
+        <v>85.75233240092072</v>
       </c>
       <c r="U29" t="n">
-        <v>114.3249875309439</v>
+        <v>114.0021357446259</v>
       </c>
       <c r="V29" t="n">
-        <v>190.7315930932423</v>
+        <v>29.61672278417004</v>
       </c>
       <c r="W29" t="n">
-        <v>212.2203033405204</v>
+        <v>51.10543303144814</v>
       </c>
       <c r="X29" t="n">
-        <v>232.7104353015764</v>
+        <v>232.3875835152584</v>
       </c>
       <c r="Y29" t="n">
-        <v>249.217273279161</v>
+        <v>248.894421492843</v>
       </c>
     </row>
     <row r="30">
@@ -24810,7 +24810,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>11.0177027807353</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.81131480504467</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>11.59480764131973</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>9.413297269676548</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>8.400382646038622</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>30.97031398156614</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>25.20650713054695</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>18.42980955036566</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>86.99593266007963</v>
+        <v>86.67308087376162</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.3969682202829</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>149.1794811733804</v>
       </c>
       <c r="X31" t="n">
-        <v>88.68899001214453</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>17.68902714886141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>81.00063209828301</v>
+        <v>245.3903245002699</v>
       </c>
       <c r="C32" t="n">
-        <v>228.2522263941149</v>
+        <v>227.9293746077969</v>
       </c>
       <c r="D32" t="n">
-        <v>217.6623762437903</v>
+        <v>56.54750593471809</v>
       </c>
       <c r="E32" t="n">
-        <v>244.9097046953692</v>
+        <v>102.9612429942093</v>
       </c>
       <c r="F32" t="n">
-        <v>124.7765714437599</v>
+        <v>108.7405100557465</v>
       </c>
       <c r="G32" t="n">
-        <v>278.2820721382424</v>
+        <v>117.1672018291702</v>
       </c>
       <c r="H32" t="n">
-        <v>202.4541367388745</v>
+        <v>202.1312849525565</v>
       </c>
       <c r="I32" t="n">
-        <v>73.45522419351329</v>
+        <v>73.13237240719528</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>12.84845256425706</v>
+        <v>12.52560077793905</v>
       </c>
       <c r="S32" t="n">
-        <v>71.99940420935272</v>
+        <v>71.67655242303471</v>
       </c>
       <c r="T32" t="n">
-        <v>86.07518418723873</v>
+        <v>85.75233240092072</v>
       </c>
       <c r="U32" t="n">
-        <v>114.3249875309439</v>
+        <v>114.0021357446259</v>
       </c>
       <c r="V32" t="n">
-        <v>190.7315930932423</v>
+        <v>190.4087413069243</v>
       </c>
       <c r="W32" t="n">
-        <v>47.50775915221544</v>
+        <v>211.8974515542024</v>
       </c>
       <c r="X32" t="n">
-        <v>67.99789111327146</v>
+        <v>232.3875835152584</v>
       </c>
       <c r="Y32" t="n">
-        <v>249.217273279161</v>
+        <v>248.894421492843</v>
       </c>
     </row>
     <row r="33">
@@ -25059,7 +25059,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>11.01770278073541</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>42.48846301872666</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>11.59480764131973</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>30.97031398156614</v>
+        <v>30.64746219524812</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,22 +25123,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>86.99593266007963</v>
+        <v>39.56798565424319</v>
       </c>
       <c r="T34" t="n">
-        <v>61.34096458308009</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>149.2983639795983</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>149.1794811733804</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>88.36613822582652</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,28 +25151,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>293.0971419834746</v>
+        <v>263.4099411015385</v>
       </c>
       <c r="C35" t="n">
-        <v>110.9236479026966</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D35" t="n">
-        <v>100.333797752372</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E35" t="n">
-        <v>292.2936703922558</v>
+        <v>288.571189955589</v>
       </c>
       <c r="F35" t="n">
-        <v>317.2393460617054</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G35" t="n">
-        <v>240.8196471752139</v>
+        <v>161.151538875708</v>
       </c>
       <c r="H35" t="n">
-        <v>249.8381024357611</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I35" t="n">
-        <v>120.8391898903999</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S35" t="n">
-        <v>119.3833699062393</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>133.4591498841253</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U35" t="n">
-        <v>161.7089532278305</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V35" t="n">
-        <v>238.1155587901289</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W35" t="n">
-        <v>259.604269037407</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X35" t="n">
-        <v>280.094400998463</v>
+        <v>115.579902039042</v>
       </c>
       <c r="Y35" t="n">
-        <v>131.8886947877426</v>
+        <v>132.0867400166265</v>
       </c>
     </row>
     <row r="36">
@@ -25230,25 +25230,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>76.89648396986134</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E36" t="n">
-        <v>68.00838077539494</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F36" t="n">
-        <v>48.76025493384594</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>15.67120592106318</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.52113447263713</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S36" t="n">
-        <v>82.04647142383182</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T36" t="n">
-        <v>110.5280290148156</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U36" t="n">
-        <v>136.3046824009688</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25299,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>116.0459960972984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25315,25 +25315,25 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G37" t="n">
-        <v>78.35427967845276</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>72.59047282743357</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3.722480436666771</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25363,22 +25363,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>126.3086001319316</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U37" t="n">
-        <v>196.6823296764849</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V37" t="n">
-        <v>162.500943643822</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W37" t="n">
-        <v>196.886298656585</v>
+        <v>80.8373170172007</v>
       </c>
       <c r="X37" t="n">
-        <v>136.0729557090311</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y37" t="n">
-        <v>128.9479536720888</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>293.0971419834746</v>
+        <v>128.5826430240535</v>
       </c>
       <c r="C38" t="n">
-        <v>275.6361920910015</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D38" t="n">
-        <v>255.709966889096</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E38" t="n">
-        <v>292.2936703922558</v>
+        <v>127.7791714328347</v>
       </c>
       <c r="F38" t="n">
-        <v>317.2393460617054</v>
+        <v>313.5168656250386</v>
       </c>
       <c r="G38" t="n">
-        <v>325.666037835129</v>
+        <v>321.9435573984622</v>
       </c>
       <c r="H38" t="n">
-        <v>85.12555824745618</v>
+        <v>246.1156219990943</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>56.50993782447688</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>115.6608894695725</v>
       </c>
       <c r="T38" t="n">
-        <v>133.4591498841253</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U38" t="n">
-        <v>161.7089532278305</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V38" t="n">
-        <v>73.40301460182394</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W38" t="n">
-        <v>259.604269037407</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X38" t="n">
-        <v>280.094400998463</v>
+        <v>134.7463106469543</v>
       </c>
       <c r="Y38" t="n">
-        <v>296.6012389760476</v>
+        <v>132.0867400166265</v>
       </c>
     </row>
     <row r="39">
@@ -25467,25 +25467,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>76.89648396986134</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>83.07179930830974</v>
+        <v>79.34931887164294</v>
       </c>
       <c r="D39" t="n">
-        <v>40.77080490463248</v>
+        <v>37.12123291442529</v>
       </c>
       <c r="E39" t="n">
-        <v>68.00838077539494</v>
+        <v>64.28590033872814</v>
       </c>
       <c r="F39" t="n">
-        <v>55.43251271337788</v>
+        <v>51.71003227671108</v>
       </c>
       <c r="G39" t="n">
-        <v>47.70681748320463</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>22.59874455649046</v>
+        <v>18.87626411982366</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,22 +25515,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.52113447263713</v>
+        <v>6.79865403597033</v>
       </c>
       <c r="S39" t="n">
-        <v>82.04647142383182</v>
+        <v>78.32399098716502</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W39" t="n">
-        <v>162.0582834809136</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25546,31 +25546,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>90.19528050193129</v>
+        <v>86.47280006526449</v>
       </c>
       <c r="C40" t="n">
-        <v>77.61012141862183</v>
+        <v>73.88764098195503</v>
       </c>
       <c r="D40" t="n">
-        <v>58.97877333820635</v>
+        <v>55.25629290153955</v>
       </c>
       <c r="E40" t="n">
-        <v>56.79726296656317</v>
+        <v>40.09303521975481</v>
       </c>
       <c r="F40" t="n">
-        <v>55.78434834292524</v>
+        <v>52.06186790625844</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>74.63179924178596</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>68.86799239076677</v>
       </c>
       <c r="I40" t="n">
-        <v>65.81377524725228</v>
+        <v>62.09129481058548</v>
       </c>
       <c r="J40" t="n">
-        <v>3.722480436666771</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>83.93421126049668</v>
       </c>
       <c r="S40" t="n">
-        <v>134.3798983569662</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>138.3088897482755</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U40" t="n">
-        <v>196.6823296764849</v>
+        <v>32.16783071706379</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>94.84520072651416</v>
+        <v>32.37179969716391</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>132.3504752723643</v>
       </c>
       <c r="Y40" t="n">
-        <v>128.9479536720888</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>293.0971419834746</v>
+        <v>131.30408375916</v>
       </c>
       <c r="C41" t="n">
-        <v>275.6361920910015</v>
+        <v>113.843133866687</v>
       </c>
       <c r="D41" t="n">
-        <v>265.0463419406769</v>
+        <v>122.4196923242747</v>
       </c>
       <c r="E41" t="n">
-        <v>127.5811262039508</v>
+        <v>291.2926306906955</v>
       </c>
       <c r="F41" t="n">
-        <v>152.5268018734005</v>
+        <v>316.2383063601451</v>
       </c>
       <c r="G41" t="n">
-        <v>160.9534936468241</v>
+        <v>324.6649981335688</v>
       </c>
       <c r="H41" t="n">
-        <v>249.8381024357611</v>
+        <v>248.8370627342009</v>
       </c>
       <c r="I41" t="n">
-        <v>120.8391898903999</v>
+        <v>119.8381501888396</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>60.23241826114368</v>
+        <v>59.23137855958339</v>
       </c>
       <c r="S41" t="n">
-        <v>119.3833699062393</v>
+        <v>118.3823302046791</v>
       </c>
       <c r="T41" t="n">
-        <v>133.4591498841253</v>
+        <v>132.4581101825651</v>
       </c>
       <c r="U41" t="n">
-        <v>161.7089532278305</v>
+        <v>160.7079135262702</v>
       </c>
       <c r="V41" t="n">
-        <v>238.1155587901289</v>
+        <v>237.1145190885686</v>
       </c>
       <c r="W41" t="n">
-        <v>259.604269037407</v>
+        <v>258.6032293358467</v>
       </c>
       <c r="X41" t="n">
-        <v>135.0155920774041</v>
+        <v>279.0933612969027</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.6012389760476</v>
+        <v>134.808180751733</v>
       </c>
     </row>
     <row r="42">
@@ -25707,22 +25707,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>83.07179930830974</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>54.23555955336114</v>
+        <v>56.80732618307246</v>
       </c>
       <c r="E42" t="n">
-        <v>68.00838077539494</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>47.70681748320463</v>
+        <v>46.70577778164434</v>
       </c>
       <c r="H42" t="n">
-        <v>22.59874455649046</v>
+        <v>21.59770485493017</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.52113447263713</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>110.5280290148156</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>136.3046824009688</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>142.162847767859</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>161.0572437793533</v>
       </c>
       <c r="X42" t="n">
-        <v>116.1362855234715</v>
+        <v>105.9347568055213</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>115.0449563957381</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25783,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>90.19528050193129</v>
+        <v>89.19424080037101</v>
       </c>
       <c r="C43" t="n">
-        <v>77.61012141862183</v>
+        <v>76.60908171706154</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>57.97773363664606</v>
       </c>
       <c r="E43" t="n">
-        <v>56.79726296656317</v>
+        <v>55.79622326500288</v>
       </c>
       <c r="F43" t="n">
-        <v>55.78434834292524</v>
+        <v>54.78330864136495</v>
       </c>
       <c r="G43" t="n">
-        <v>78.35427967845276</v>
+        <v>77.35323997689247</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>71.58943312587328</v>
       </c>
       <c r="I43" t="n">
-        <v>65.81377524725228</v>
+        <v>64.81273554569199</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2.721440735106484</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25834,19 +25834,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>19.84369366865796</v>
       </c>
       <c r="T43" t="n">
-        <v>138.3088897482755</v>
+        <v>137.3078500467152</v>
       </c>
       <c r="U43" t="n">
-        <v>179.8151142280674</v>
+        <v>195.6812899749246</v>
       </c>
       <c r="V43" t="n">
-        <v>162.500943643822</v>
+        <v>161.4999039422617</v>
       </c>
       <c r="W43" t="n">
-        <v>196.886298656585</v>
+        <v>35.09324043227042</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>390491.2201936607</v>
+        <v>393627.0683903878</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>390491.2201936607</v>
+        <v>393627.0683903878</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>618473.2872140774</v>
+        <v>611285.73461702</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>618473.2872140772</v>
+        <v>611285.73461702</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>612117.8861457198</v>
+        <v>611285.73461702</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>717218.1780631255</v>
+        <v>714970.8029652301</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>717218.1780631255</v>
+        <v>714970.8029652301</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>619024.5016679722</v>
+        <v>624097.6742818962</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>619024.5016679723</v>
+        <v>624097.6742818966</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>619024.5016679724</v>
+        <v>618263.5040627897</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>675902.9794415566</v>
+        <v>675902.9794415568</v>
       </c>
       <c r="C2" t="n">
-        <v>675902.9794415566</v>
+        <v>675902.9794415568</v>
       </c>
       <c r="D2" t="n">
-        <v>675902.9794415567</v>
+        <v>675902.9794415568</v>
       </c>
       <c r="E2" t="n">
-        <v>183231.0676085457</v>
+        <v>183231.0676085455</v>
       </c>
       <c r="F2" t="n">
-        <v>261979.4681650498</v>
+        <v>264776.3057459146</v>
       </c>
       <c r="G2" t="n">
-        <v>261979.4681650498</v>
+        <v>264776.3057459147</v>
       </c>
       <c r="H2" t="n">
-        <v>432071.2162760771</v>
+        <v>426420.8121466588</v>
       </c>
       <c r="I2" t="n">
-        <v>432071.2162760773</v>
+        <v>426420.8121466589</v>
       </c>
       <c r="J2" t="n">
-        <v>426402.8855934886</v>
+        <v>426420.8121466585</v>
       </c>
       <c r="K2" t="n">
-        <v>520140.9837900933</v>
+        <v>518896.6839166831</v>
       </c>
       <c r="L2" t="n">
-        <v>520140.9837900932</v>
+        <v>518896.6839166829</v>
       </c>
       <c r="M2" t="n">
-        <v>432562.8399781999</v>
+        <v>437847.6772531702</v>
       </c>
       <c r="N2" t="n">
-        <v>432562.8399781999</v>
+        <v>437847.67725317</v>
       </c>
       <c r="O2" t="n">
-        <v>432562.8399781996</v>
+        <v>432644.2281388316</v>
       </c>
       <c r="P2" t="n">
         <v>177387.2191268866</v>
@@ -26375,22 +26375,22 @@
         <v>2177.15258808521</v>
       </c>
       <c r="F3" t="n">
-        <v>31432.98113553756</v>
+        <v>32570.60065185426</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>82348.09939241168</v>
+        <v>78570.6033628361</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2177.15258808521</v>
       </c>
       <c r="K3" t="n">
-        <v>71709.3597440048</v>
+        <v>72510.19150525304</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="C4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="D4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="E4" t="n">
-        <v>98980.81406204609</v>
+        <v>100799.6665636837</v>
       </c>
       <c r="F4" t="n">
-        <v>153462.0192636311</v>
+        <v>157215.8327432922</v>
       </c>
       <c r="G4" t="n">
-        <v>153462.0192636311</v>
+        <v>157215.8327432922</v>
       </c>
       <c r="H4" t="n">
-        <v>261658.2473959072</v>
+        <v>260468.6945896752</v>
       </c>
       <c r="I4" t="n">
-        <v>261658.2473959072</v>
+        <v>260468.6945896751</v>
       </c>
       <c r="J4" t="n">
-        <v>257730.7970230179</v>
+        <v>260468.6945896751</v>
       </c>
       <c r="K4" t="n">
-        <v>322588.8552581666</v>
+        <v>324447.0980936696</v>
       </c>
       <c r="L4" t="n">
-        <v>322588.8552581666</v>
+        <v>324447.0980936696</v>
       </c>
       <c r="M4" t="n">
-        <v>261998.890376707</v>
+        <v>268374.244140894</v>
       </c>
       <c r="N4" t="n">
-        <v>261998.890376707</v>
+        <v>268374.2441408941</v>
       </c>
       <c r="O4" t="n">
-        <v>261998.890376707</v>
+        <v>264774.2957362168</v>
       </c>
       <c r="P4" t="n">
-        <v>94937.81247666414</v>
+        <v>96756.66497830173</v>
       </c>
     </row>
     <row r="5">
@@ -26479,34 +26479,34 @@
         <v>228.7888011596694</v>
       </c>
       <c r="F5" t="n">
-        <v>3531.962915014053</v>
+        <v>3651.511083910589</v>
       </c>
       <c r="G5" t="n">
-        <v>3531.962915014053</v>
+        <v>3651.511083910589</v>
       </c>
       <c r="H5" t="n">
-        <v>17530.00821383455</v>
+        <v>17125.38504125944</v>
       </c>
       <c r="I5" t="n">
-        <v>17530.00821383455</v>
+        <v>17125.38504125943</v>
       </c>
       <c r="J5" t="n">
-        <v>17301.21941267489</v>
+        <v>17125.38504125943</v>
       </c>
       <c r="K5" t="n">
-        <v>21533.71300421893</v>
+        <v>21322.48687057741</v>
       </c>
       <c r="L5" t="n">
-        <v>21533.71300421893</v>
+        <v>21322.48687057741</v>
       </c>
       <c r="M5" t="n">
-        <v>17550.19039204737</v>
+        <v>17624.76763941202</v>
       </c>
       <c r="N5" t="n">
-        <v>17550.19039204737</v>
+        <v>17624.76763941203</v>
       </c>
       <c r="O5" t="n">
-        <v>17550.19039204737</v>
+        <v>17395.97883825236</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>202444.9819473737</v>
+        <v>200626.1294457363</v>
       </c>
       <c r="C6" t="n">
-        <v>202444.9819473737</v>
+        <v>200626.1294457363</v>
       </c>
       <c r="D6" t="n">
-        <v>202444.9819473738</v>
+        <v>200626.1294457363</v>
       </c>
       <c r="E6" t="n">
-        <v>81844.31215725477</v>
+        <v>80025.4596556169</v>
       </c>
       <c r="F6" t="n">
-        <v>73552.50485086704</v>
+        <v>71338.36126685762</v>
       </c>
       <c r="G6" t="n">
-        <v>104985.4859864046</v>
+        <v>103908.961918712</v>
       </c>
       <c r="H6" t="n">
-        <v>70534.86127392371</v>
+        <v>70256.12915288802</v>
       </c>
       <c r="I6" t="n">
-        <v>152882.9606663355</v>
+        <v>148826.7325157243</v>
       </c>
       <c r="J6" t="n">
-        <v>151370.8691577958</v>
+        <v>146649.5799276387</v>
       </c>
       <c r="K6" t="n">
-        <v>104309.0557837031</v>
+        <v>100616.9074471831</v>
       </c>
       <c r="L6" t="n">
-        <v>176018.4155277077</v>
+        <v>173127.0989524359</v>
       </c>
       <c r="M6" t="n">
-        <v>153013.7592094455</v>
+        <v>151848.6654728642</v>
       </c>
       <c r="N6" t="n">
-        <v>153013.7592094455</v>
+        <v>151848.6654728639</v>
       </c>
       <c r="O6" t="n">
-        <v>153013.7592094452</v>
+        <v>150473.9535643624</v>
       </c>
       <c r="P6" t="n">
-        <v>82449.40665022246</v>
+        <v>80630.55414858484</v>
       </c>
     </row>
   </sheetData>
@@ -26695,34 +26695,34 @@
         <v>2.721440735106512</v>
       </c>
       <c r="F2" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="G2" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="H2" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="I2" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="J2" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="K2" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="L2" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="M2" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="N2" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="O2" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="I4" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="J4" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="K4" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="L4" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="N4" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="O4" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26917,22 +26917,22 @@
         <v>2.721440735106512</v>
       </c>
       <c r="F2" t="n">
-        <v>39.29122641942195</v>
+        <v>40.71325081481783</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>47.38396569688662</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="K2" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>2.721440735106512</v>
       </c>
       <c r="K2" t="n">
-        <v>39.29122641942195</v>
+        <v>40.71325081481783</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>47.38396569688662</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="P2" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
     </row>
     <row r="3">
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227543</v>
       </c>
     </row>
   </sheetData>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="C14" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="D14" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="E14" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="F14" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="G14" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="H14" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="I14" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="S14" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="T14" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="U14" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="V14" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="W14" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="X14" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="Y14" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="C15" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="D15" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="E15" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="F15" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="G15" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="H15" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="I15" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="S15" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="T15" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="U15" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="V15" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="W15" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="X15" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="Y15" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="C16" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="D16" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="E16" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="F16" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="G16" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="H16" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="I16" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="J16" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28527,31 +28527,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="R16" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="S16" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="T16" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="U16" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="V16" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="W16" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="X16" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="Y16" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="C17" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="D17" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="E17" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="F17" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="G17" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="H17" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="I17" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="S17" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="T17" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="U17" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="V17" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="W17" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="X17" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="Y17" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="C18" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="D18" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="E18" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="F18" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="G18" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="H18" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="I18" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="S18" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="T18" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="U18" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="V18" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="W18" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="X18" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="Y18" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
     </row>
     <row r="19">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="C19" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="D19" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="E19" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="F19" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="G19" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="H19" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="I19" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="J19" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -28764,31 +28764,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="R19" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="S19" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="T19" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="U19" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="V19" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="W19" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="X19" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.01266715452846</v>
+        <v>43.43469154992434</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="C20" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="D20" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="E20" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="F20" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="G20" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="H20" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="I20" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="S20" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="T20" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="U20" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="V20" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="W20" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="X20" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="Y20" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="C21" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="D21" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="E21" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="F21" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="G21" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="H21" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="S21" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="T21" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="U21" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="V21" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="W21" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="X21" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="Y21" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="C22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="D22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="E22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="F22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="G22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="H22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="I22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="J22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="K22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="L22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="M22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="N22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="O22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="P22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="R22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="S22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="T22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="U22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="V22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="W22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="X22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.39663285141508</v>
+        <v>87.4190285964622</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="C23" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="D23" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="E23" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="F23" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="G23" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="H23" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="I23" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="S23" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="T23" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="U23" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="V23" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="W23" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="X23" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="Y23" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="C24" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="D24" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="E24" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="F24" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="G24" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="H24" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="S24" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="T24" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="U24" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="V24" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="W24" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="X24" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="Y24" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="C25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="D25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="E25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="F25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="G25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="H25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="I25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="J25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="K25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="L25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="M25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="N25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="O25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="P25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="R25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="S25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="T25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="U25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="V25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="W25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="X25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="Y25" t="n">
-        <v>89.39663285141508</v>
+        <v>87.41902859646217</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="C26" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="D26" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="E26" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="F26" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="G26" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="H26" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="I26" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="S26" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="T26" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="U26" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="V26" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="W26" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="X26" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="Y26" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="C27" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="D27" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="E27" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="F27" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="G27" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="H27" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="I27" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="S27" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="T27" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="U27" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="V27" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="W27" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="X27" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="Y27" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="C28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="D28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="E28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="F28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="G28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="H28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="I28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="J28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="K28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="L28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="M28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="N28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="O28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="P28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="R28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="S28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="T28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="U28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="V28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="W28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="X28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
       <c r="Y28" t="n">
-        <v>86.67519211630857</v>
+        <v>87.41902859646217</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="C29" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="D29" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="E29" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="F29" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="G29" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H29" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="I29" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -29557,28 +29557,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="S29" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="T29" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="U29" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="V29" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="W29" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="X29" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="Y29" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
     </row>
     <row r="30">
@@ -29588,22 +29588,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="C30" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="D30" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="E30" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="F30" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -29639,25 +29639,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="T30" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="U30" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="V30" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="W30" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="X30" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="Y30" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="C31" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="D31" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="E31" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="F31" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="G31" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H31" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="I31" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="K31" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>125.1286672264644</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>116.6598461435256</v>
       </c>
       <c r="O31" t="n">
-        <v>137.0206653768926</v>
+        <v>39.25846549553965</v>
       </c>
       <c r="P31" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="Q31" t="n">
-        <v>91.26623440289976</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="R31" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="S31" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="T31" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="U31" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="V31" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="W31" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="X31" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="Y31" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="C32" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="D32" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="E32" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="F32" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="G32" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H32" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="I32" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29794,28 +29794,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="S32" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="T32" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="U32" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="V32" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="W32" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="X32" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="Y32" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
     </row>
     <row r="33">
@@ -29825,22 +29825,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="C33" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="D33" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="E33" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="F33" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -29876,25 +29876,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="T33" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="U33" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="V33" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="W33" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="X33" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="Y33" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="C34" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="D34" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="E34" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="F34" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="G34" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H34" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="I34" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="L34" t="n">
-        <v>137.0206653768926</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>125.1286672264644</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>116.6598461435256</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>83.24280254207757</v>
       </c>
       <c r="P34" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="Q34" t="n">
-        <v>91.26623440289976</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="R34" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="S34" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="T34" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="U34" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="V34" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="W34" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="X34" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.0206653768926</v>
+        <v>137.3435171632106</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C35" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D35" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E35" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F35" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G35" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H35" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I35" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30031,28 +30031,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S35" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T35" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U35" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V35" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W35" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X35" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="36">
@@ -30062,25 +30062,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C36" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D36" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E36" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F36" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G36" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H36" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S36" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T36" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U36" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V36" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W36" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X36" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y36" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="37">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="L37" t="n">
-        <v>89.6366996800059</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="M37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="N37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="O37" t="n">
-        <v>89.636699680006</v>
+        <v>51.77811947519874</v>
       </c>
       <c r="P37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="R37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.636699680006</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="C38" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="D38" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="E38" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="F38" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="G38" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="H38" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="I38" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30268,28 +30268,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="S38" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="T38" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="U38" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="V38" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="W38" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="X38" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="Y38" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
     </row>
     <row r="39">
@@ -30299,25 +30299,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="C39" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="D39" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="E39" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="F39" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="G39" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="H39" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="S39" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="T39" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="U39" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="V39" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="W39" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="X39" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="Y39" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
     </row>
     <row r="40">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="C40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="D40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="E40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="F40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="G40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="H40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="I40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="J40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="K40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="L40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="M40" t="n">
-        <v>89.636699680006</v>
+        <v>51.77811947519847</v>
       </c>
       <c r="N40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="O40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="P40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="R40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="S40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="T40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="U40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="V40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="W40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="X40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
       <c r="Y40" t="n">
-        <v>89.636699680006</v>
+        <v>93.3591801166728</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="C41" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="D41" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="E41" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="F41" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="G41" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="H41" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="I41" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="S41" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="T41" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="U41" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="V41" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="W41" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="X41" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="Y41" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
     </row>
     <row r="42">
@@ -30536,25 +30536,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="C42" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="D42" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="E42" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="F42" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="G42" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="H42" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="S42" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="T42" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="U42" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="V42" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="W42" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="X42" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="Y42" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="C43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="D43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="E43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="F43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="G43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="H43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="I43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="J43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="K43" t="n">
-        <v>89.636699680006</v>
+        <v>72.58246001570951</v>
       </c>
       <c r="L43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="M43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="N43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="O43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="P43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="Q43" t="n">
-        <v>89.636699680006</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="S43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="T43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="U43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="V43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="W43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="X43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="Y43" t="n">
-        <v>89.636699680006</v>
+        <v>90.63773938156629</v>
       </c>
     </row>
     <row r="44">
@@ -36121,22 +36121,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L20" t="n">
-        <v>164.7125441883049</v>
+        <v>130.5561645717664</v>
       </c>
       <c r="M20" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P20" t="n">
-        <v>7.355522056809719</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>164.7125441883049</v>
+        <v>154.2953713097138</v>
       </c>
       <c r="M21" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="N21" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>31.43369385964886</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,25 +36279,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>67.12714102553223</v>
+        <v>65.14953677057935</v>
       </c>
       <c r="L22" t="n">
-        <v>116.9866581117312</v>
+        <v>115.0090538567783</v>
       </c>
       <c r="M22" t="n">
-        <v>128.9805098132557</v>
+        <v>127.0029055583028</v>
       </c>
       <c r="N22" t="n">
-        <v>133.5288052306437</v>
+        <v>131.5512009756908</v>
       </c>
       <c r="O22" t="n">
-        <v>113.9817607654548</v>
+        <v>112.0041565105019</v>
       </c>
       <c r="P22" t="n">
-        <v>86.67519211630857</v>
+        <v>84.69758786135569</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.234589599720692</v>
+        <v>1.256985344767813</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,19 +36358,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>164.7125441883049</v>
+        <v>73.81970757519619</v>
       </c>
       <c r="M23" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="O23" t="n">
-        <v>128.148762143776</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P23" t="n">
         <v>90.5657124162131</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>164.7125441883049</v>
+        <v>84.19985765988609</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="N24" t="n">
-        <v>31.43369385964886</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="O24" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="P24" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,25 +36516,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>67.12714102553223</v>
+        <v>65.14953677057932</v>
       </c>
       <c r="L25" t="n">
-        <v>116.9866581117312</v>
+        <v>115.0090538567783</v>
       </c>
       <c r="M25" t="n">
-        <v>128.9805098132557</v>
+        <v>127.0029055583028</v>
       </c>
       <c r="N25" t="n">
-        <v>133.5288052306437</v>
+        <v>131.5512009756908</v>
       </c>
       <c r="O25" t="n">
-        <v>113.9817607654548</v>
+        <v>112.0041565105018</v>
       </c>
       <c r="P25" t="n">
-        <v>86.67519211630857</v>
+        <v>84.69758786135566</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.234589599720692</v>
+        <v>1.256985344767784</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,22 +36595,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="M26" t="n">
-        <v>68.0125047189305</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="N26" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="O26" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>3.593401468655006</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>164.7125441883049</v>
+        <v>84.19985765988609</v>
       </c>
       <c r="M27" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>126.0507243981262</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36753,25 +36753,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>64.40570029042571</v>
+        <v>65.14953677057932</v>
       </c>
       <c r="L28" t="n">
-        <v>114.2652173766247</v>
+        <v>115.0090538567783</v>
       </c>
       <c r="M28" t="n">
-        <v>126.2590690781492</v>
+        <v>127.0029055583028</v>
       </c>
       <c r="N28" t="n">
-        <v>130.8073644955372</v>
+        <v>131.5512009756908</v>
       </c>
       <c r="O28" t="n">
-        <v>111.2603200303482</v>
+        <v>112.0041565105018</v>
       </c>
       <c r="P28" t="n">
-        <v>83.95375138120205</v>
+        <v>84.69758786135566</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.5131488646141804</v>
+        <v>1.256985344767784</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,22 +36832,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>164.7125441883049</v>
+        <v>73.81970757519619</v>
       </c>
       <c r="M29" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="N29" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
-        <v>54.00193037168416</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="M30" t="n">
-        <v>164.7125441883049</v>
+        <v>154.2953713097137</v>
       </c>
       <c r="N30" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="O30" t="n">
-        <v>158.0574918978684</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="K31" t="n">
-        <v>114.7511735510098</v>
+        <v>115.0740253373278</v>
       </c>
       <c r="L31" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M31" t="n">
-        <v>164.7125441883049</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N31" t="n">
-        <v>44.13217237922859</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="O31" t="n">
-        <v>161.6057932909323</v>
+        <v>63.84359340957933</v>
       </c>
       <c r="P31" t="n">
-        <v>134.2992246417861</v>
+        <v>134.6220764281041</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.104191151205366</v>
+        <v>51.18147391151625</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,16 +37072,16 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="M32" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>128.148762143776</v>
+        <v>130.5561645717662</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>154.2953713097137</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="O33" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>126.0507243981262</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>114.7511735510098</v>
+        <v>115.0740253373278</v>
       </c>
       <c r="L34" t="n">
-        <v>164.6106906372088</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>164.7125441883049</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N34" t="n">
-        <v>44.13217237922859</v>
+        <v>160.7920185227542</v>
       </c>
       <c r="O34" t="n">
-        <v>24.58512791403967</v>
+        <v>107.8279304561172</v>
       </c>
       <c r="P34" t="n">
-        <v>134.2992246417861</v>
+        <v>134.6220764281041</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.104191151205366</v>
+        <v>51.18147391151625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,13 +37309,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
-        <v>164.7125441883049</v>
+        <v>130.5561645717664</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>142.1593364910223</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37388,22 +37388,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>87.96197824804081</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="M36" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="N36" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="O36" t="n">
-        <v>164.7125441883049</v>
+        <v>154.2953713097138</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>67.36720785412315</v>
+        <v>71.08968829078992</v>
       </c>
       <c r="L37" t="n">
-        <v>117.226724940322</v>
+        <v>120.9492053769889</v>
       </c>
       <c r="M37" t="n">
-        <v>129.2205766418466</v>
+        <v>132.9430570785134</v>
       </c>
       <c r="N37" t="n">
-        <v>133.7688720592346</v>
+        <v>137.4913524959014</v>
       </c>
       <c r="O37" t="n">
-        <v>114.2218275940457</v>
+        <v>76.36324738923841</v>
       </c>
       <c r="P37" t="n">
-        <v>86.91525894489949</v>
+        <v>90.63773938156626</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.474656428311619</v>
+        <v>7.19713686497839</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,22 +37543,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>81.5023538289016</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>60.32985846522519</v>
       </c>
       <c r="M38" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="N38" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="M39" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="N39" t="n">
-        <v>158.0574918978684</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>164.7125441883049</v>
+        <v>84.19985765988615</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>67.36720785412315</v>
+        <v>71.08968829078995</v>
       </c>
       <c r="L40" t="n">
-        <v>117.2267249403221</v>
+        <v>120.9492053769889</v>
       </c>
       <c r="M40" t="n">
-        <v>129.2205766418466</v>
+        <v>91.36199643703905</v>
       </c>
       <c r="N40" t="n">
-        <v>133.7688720592346</v>
+        <v>137.4913524959014</v>
       </c>
       <c r="O40" t="n">
-        <v>114.2218275940457</v>
+        <v>117.9443080307125</v>
       </c>
       <c r="P40" t="n">
-        <v>86.91525894489949</v>
+        <v>90.63773938156629</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.474656428311619</v>
+        <v>7.197136864978418</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="M41" t="n">
-        <v>142.1593364910224</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="N41" t="n">
-        <v>164.7125441883049</v>
+        <v>73.8197075751963</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>87.96197824804081</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>154.2953713097138</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="O42" t="n">
-        <v>164.7125441883049</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>164.7125441883049</v>
+        <v>160.7920185227543</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>67.36720785412315</v>
+        <v>50.31296818982666</v>
       </c>
       <c r="L43" t="n">
-        <v>117.2267249403221</v>
+        <v>118.2277646418824</v>
       </c>
       <c r="M43" t="n">
-        <v>129.2205766418466</v>
+        <v>130.2216163434069</v>
       </c>
       <c r="N43" t="n">
-        <v>133.7688720592346</v>
+        <v>134.7699117607949</v>
       </c>
       <c r="O43" t="n">
-        <v>114.2218275940457</v>
+        <v>115.222867295606</v>
       </c>
       <c r="P43" t="n">
-        <v>86.91525894489949</v>
+        <v>87.91629864645978</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.474656428311619</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
